--- a/4 bit divider/4_bit_divider.xlsx
+++ b/4 bit divider/4_bit_divider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/464a09e94892e0b7/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="811" documentId="8_{03C70664-5035-455F-B56A-29A9E3EF4CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E526DE9-6784-45FE-A41D-62B903DE1F0D}"/>
+  <xr:revisionPtr revIDLastSave="1343" documentId="8_{03C70664-5035-455F-B56A-29A9E3EF4CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{196BFC64-EF39-4313-AC19-7D228691A674}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C730BC76-819F-4A73-9BFF-704CAD03E624}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8A530C-366A-4117-8897-6D615629269D}">
   <dimension ref="A1:W682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="Q241" sqref="Q241"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="Q279" sqref="Q279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,6 +677,21 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
       <c r="Q3" s="3">
         <v>0</v>
       </c>
@@ -727,6 +742,21 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
       <c r="Q4" s="3">
         <v>0</v>
       </c>
@@ -777,6 +807,21 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
       <c r="Q5" s="3">
         <v>0</v>
       </c>
@@ -827,6 +872,21 @@
       <c r="K6" s="2">
         <v>1</v>
       </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
       <c r="Q6" s="3">
         <v>0</v>
       </c>
@@ -877,6 +937,21 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
       <c r="Q7" s="3">
         <v>0</v>
       </c>
@@ -927,6 +1002,21 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -980,6 +1070,21 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
@@ -1030,6 +1135,21 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
@@ -1080,6 +1200,21 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
       <c r="Q11" s="3">
         <v>0</v>
       </c>
@@ -1130,6 +1265,21 @@
       <c r="K12" s="2">
         <v>1</v>
       </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
@@ -1180,6 +1330,21 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
       <c r="Q13" s="3">
         <v>0</v>
       </c>
@@ -1230,6 +1395,21 @@
       <c r="K14" s="2">
         <v>1</v>
       </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1280,6 +1460,21 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1330,6 +1525,21 @@
       <c r="K16" s="2">
         <v>1</v>
       </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
       <c r="Q16" s="3">
         <v>0</v>
       </c>
@@ -1380,6 +1590,21 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1429,6 +1654,21 @@
       </c>
       <c r="K18" s="2">
         <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1505,6 +1745,21 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1555,6 +1810,21 @@
       <c r="K21" s="2">
         <v>1</v>
       </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
@@ -1605,6 +1875,21 @@
       <c r="K22" s="2">
         <v>0</v>
       </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1655,6 +1940,21 @@
       <c r="K23" s="2">
         <v>1</v>
       </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1705,6 +2005,21 @@
       <c r="K24" s="2">
         <v>0</v>
       </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1755,6 +2070,21 @@
       <c r="K25" s="2">
         <v>1</v>
       </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
@@ -1805,6 +2135,21 @@
       <c r="K26" s="2">
         <v>0</v>
       </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1858,6 +2203,21 @@
       <c r="K27" s="2">
         <v>1</v>
       </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1908,6 +2268,21 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
       <c r="Q28" s="3">
         <v>0</v>
       </c>
@@ -1958,6 +2333,21 @@
       <c r="K29" s="2">
         <v>1</v>
       </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2008,6 +2398,21 @@
       <c r="K30" s="2">
         <v>0</v>
       </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
       <c r="Q30" s="3">
         <v>0</v>
       </c>
@@ -2058,6 +2463,21 @@
       <c r="K31" s="2">
         <v>1</v>
       </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
       <c r="Q31" s="3">
         <v>0</v>
       </c>
@@ -2108,6 +2528,21 @@
       <c r="K32" s="2">
         <v>0</v>
       </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2158,6 +2593,21 @@
       <c r="K33" s="2">
         <v>1</v>
       </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2208,6 +2658,21 @@
       <c r="K34" s="2">
         <v>0</v>
       </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
       <c r="Q34" s="3">
         <v>0</v>
       </c>
@@ -2257,6 +2722,21 @@
       </c>
       <c r="K35" s="2">
         <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2333,6 +2813,21 @@
       <c r="K37" s="2">
         <v>0</v>
       </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
       <c r="Q37" s="3">
         <v>0</v>
       </c>
@@ -2383,6 +2878,21 @@
       <c r="K38" s="2">
         <v>1</v>
       </c>
+      <c r="L38" s="5">
+        <v>2</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
       <c r="Q38" s="3">
         <v>0</v>
       </c>
@@ -2433,6 +2943,21 @@
       <c r="K39" s="2">
         <v>0</v>
       </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>1</v>
+      </c>
       <c r="Q39" s="3">
         <v>0</v>
       </c>
@@ -2483,6 +3008,21 @@
       <c r="K40" s="2">
         <v>1</v>
       </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
       <c r="Q40" s="3">
         <v>0</v>
       </c>
@@ -2531,6 +3071,21 @@
         <v>0</v>
       </c>
       <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
@@ -2586,6 +3141,21 @@
       <c r="K42" s="2">
         <v>1</v>
       </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0</v>
+      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
@@ -2636,6 +3206,21 @@
       <c r="K43" s="2">
         <v>0</v>
       </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2686,6 +3271,21 @@
       <c r="K44" s="2">
         <v>1</v>
       </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
@@ -2736,6 +3336,21 @@
       <c r="K45" s="2">
         <v>0</v>
       </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2786,6 +3401,21 @@
       <c r="K46" s="2">
         <v>1</v>
       </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0</v>
+      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2836,6 +3466,21 @@
       <c r="K47" s="2">
         <v>0</v>
       </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
@@ -2886,6 +3531,21 @@
       <c r="K48" s="2">
         <v>1</v>
       </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0</v>
+      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -2936,6 +3596,21 @@
       <c r="K49" s="2">
         <v>0</v>
       </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
@@ -2986,6 +3661,21 @@
       <c r="K50" s="2">
         <v>1</v>
       </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0</v>
+      </c>
       <c r="Q50" s="3">
         <v>0</v>
       </c>
@@ -3036,6 +3726,21 @@
       <c r="K51" s="2">
         <v>0</v>
       </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0</v>
+      </c>
       <c r="Q51" s="3">
         <v>0</v>
       </c>
@@ -3085,6 +3790,21 @@
       </c>
       <c r="K52" s="2">
         <v>1</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3161,6 +3881,21 @@
       <c r="K54" s="2">
         <v>0</v>
       </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0</v>
+      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3211,6 +3946,21 @@
       <c r="K55" s="2">
         <v>1</v>
       </c>
+      <c r="L55" s="5">
+        <v>3</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <v>1</v>
+      </c>
+      <c r="P55" s="5">
+        <v>1</v>
+      </c>
       <c r="Q55" s="3">
         <v>0</v>
       </c>
@@ -3261,6 +4011,21 @@
       <c r="K56" s="2">
         <v>0</v>
       </c>
+      <c r="L56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <v>1</v>
+      </c>
       <c r="Q56" s="3">
         <v>1</v>
       </c>
@@ -3311,6 +4076,21 @@
       <c r="K57" s="2">
         <v>1</v>
       </c>
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <v>1</v>
+      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3361,6 +4141,21 @@
       <c r="K58" s="2">
         <v>0</v>
       </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0</v>
+      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3411,6 +4206,21 @@
       <c r="K59" s="2">
         <v>1</v>
       </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -3459,6 +4269,21 @@
         <v>1</v>
       </c>
       <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+      <c r="P60" s="5">
         <v>0</v>
       </c>
       <c r="Q60" s="3">
@@ -3514,6 +4339,21 @@
       <c r="K61" s="2">
         <v>1</v>
       </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3564,6 +4404,21 @@
       <c r="K62" s="2">
         <v>0</v>
       </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
@@ -3614,6 +4469,21 @@
       <c r="K63" s="2">
         <v>1</v>
       </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
       <c r="Q63" s="3">
         <v>0</v>
       </c>
@@ -3664,6 +4534,21 @@
       <c r="K64" s="2">
         <v>0</v>
       </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
       <c r="Q64" s="3">
         <v>0</v>
       </c>
@@ -3714,6 +4599,21 @@
       <c r="K65" s="2">
         <v>1</v>
       </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
       <c r="Q65" s="3">
         <v>0</v>
       </c>
@@ -3764,6 +4664,21 @@
       <c r="K66" s="2">
         <v>0</v>
       </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0</v>
+      </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
@@ -3814,6 +4729,21 @@
       <c r="K67" s="2">
         <v>1</v>
       </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0</v>
+      </c>
       <c r="Q67" s="3">
         <v>0</v>
       </c>
@@ -3864,6 +4794,21 @@
       <c r="K68" s="2">
         <v>0</v>
       </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="5">
+        <v>0</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0</v>
+      </c>
       <c r="Q68" s="3">
         <v>0</v>
       </c>
@@ -3913,6 +4858,21 @@
       </c>
       <c r="K69" s="2">
         <v>1</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0</v>
       </c>
       <c r="Q69" s="3">
         <v>0</v>
@@ -3989,6 +4949,21 @@
       <c r="K71" s="2">
         <v>0</v>
       </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0</v>
+      </c>
       <c r="Q71" s="3">
         <v>0</v>
       </c>
@@ -4039,6 +5014,21 @@
       <c r="K72" s="2">
         <v>1</v>
       </c>
+      <c r="L72" s="5">
+        <v>4</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0</v>
+      </c>
+      <c r="N72" s="5">
+        <v>1</v>
+      </c>
+      <c r="O72" s="5">
+        <v>0</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0</v>
+      </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
@@ -4089,6 +5079,21 @@
       <c r="K73" s="2">
         <v>0</v>
       </c>
+      <c r="L73" s="5">
+        <v>2</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+      <c r="N73" s="5">
+        <v>0</v>
+      </c>
+      <c r="O73" s="5">
+        <v>1</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0</v>
+      </c>
       <c r="Q73" s="3">
         <v>0</v>
       </c>
@@ -4139,6 +5144,21 @@
       <c r="K74" s="2">
         <v>1</v>
       </c>
+      <c r="L74" s="5">
+        <v>1</v>
+      </c>
+      <c r="M74" s="5">
+        <v>0</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0</v>
+      </c>
+      <c r="P74" s="5">
+        <v>1</v>
+      </c>
       <c r="Q74" s="3">
         <v>1</v>
       </c>
@@ -4189,6 +5209,21 @@
       <c r="K75" s="2">
         <v>0</v>
       </c>
+      <c r="L75" s="5">
+        <v>1</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0</v>
+      </c>
+      <c r="P75" s="5">
+        <v>1</v>
+      </c>
       <c r="Q75" s="3">
         <v>0</v>
       </c>
@@ -4239,6 +5274,21 @@
       <c r="K76" s="2">
         <v>1</v>
       </c>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5">
+        <v>0</v>
+      </c>
+      <c r="N76" s="5">
+        <v>0</v>
+      </c>
+      <c r="O76" s="5">
+        <v>0</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0</v>
+      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
@@ -4287,6 +5337,21 @@
         <v>1</v>
       </c>
       <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0</v>
+      </c>
+      <c r="N77" s="5">
+        <v>0</v>
+      </c>
+      <c r="O77" s="5">
+        <v>0</v>
+      </c>
+      <c r="P77" s="5">
         <v>0</v>
       </c>
       <c r="Q77" s="3">
@@ -4342,6 +5407,21 @@
       <c r="K78" s="2">
         <v>1</v>
       </c>
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
+      <c r="M78" s="5">
+        <v>0</v>
+      </c>
+      <c r="N78" s="5">
+        <v>0</v>
+      </c>
+      <c r="O78" s="5">
+        <v>0</v>
+      </c>
+      <c r="P78" s="5">
+        <v>0</v>
+      </c>
       <c r="Q78" s="3">
         <v>0</v>
       </c>
@@ -4392,6 +5472,21 @@
       <c r="K79" s="2">
         <v>0</v>
       </c>
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5">
+        <v>0</v>
+      </c>
+      <c r="N79" s="5">
+        <v>0</v>
+      </c>
+      <c r="O79" s="5">
+        <v>0</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0</v>
+      </c>
       <c r="Q79" s="3">
         <v>0</v>
       </c>
@@ -4442,6 +5537,21 @@
       <c r="K80" s="2">
         <v>1</v>
       </c>
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5">
+        <v>0</v>
+      </c>
+      <c r="N80" s="5">
+        <v>0</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0</v>
+      </c>
       <c r="Q80" s="3">
         <v>0</v>
       </c>
@@ -4492,6 +5602,21 @@
       <c r="K81" s="2">
         <v>0</v>
       </c>
+      <c r="L81" s="5">
+        <v>0</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0</v>
+      </c>
+      <c r="O81" s="5">
+        <v>0</v>
+      </c>
+      <c r="P81" s="5">
+        <v>0</v>
+      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4542,6 +5667,21 @@
       <c r="K82" s="2">
         <v>1</v>
       </c>
+      <c r="L82" s="5">
+        <v>0</v>
+      </c>
+      <c r="M82" s="5">
+        <v>0</v>
+      </c>
+      <c r="N82" s="5">
+        <v>0</v>
+      </c>
+      <c r="O82" s="5">
+        <v>0</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0</v>
+      </c>
       <c r="Q82" s="3">
         <v>0</v>
       </c>
@@ -4592,6 +5732,21 @@
       <c r="K83" s="2">
         <v>0</v>
       </c>
+      <c r="L83" s="5">
+        <v>0</v>
+      </c>
+      <c r="M83" s="5">
+        <v>0</v>
+      </c>
+      <c r="N83" s="5">
+        <v>0</v>
+      </c>
+      <c r="O83" s="5">
+        <v>0</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0</v>
+      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4642,6 +5797,21 @@
       <c r="K84" s="2">
         <v>1</v>
       </c>
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0</v>
+      </c>
+      <c r="O84" s="5">
+        <v>0</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0</v>
+      </c>
       <c r="Q84" s="3">
         <v>0</v>
       </c>
@@ -4692,6 +5862,21 @@
       <c r="K85" s="2">
         <v>0</v>
       </c>
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0</v>
+      </c>
+      <c r="O85" s="5">
+        <v>0</v>
+      </c>
+      <c r="P85" s="5">
+        <v>0</v>
+      </c>
       <c r="Q85" s="3">
         <v>0</v>
       </c>
@@ -4741,6 +5926,21 @@
       </c>
       <c r="K86" s="2">
         <v>1</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
+      <c r="M86" s="5">
+        <v>0</v>
+      </c>
+      <c r="N86" s="5">
+        <v>0</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0</v>
       </c>
       <c r="Q86" s="3">
         <v>0</v>
@@ -4817,6 +6017,21 @@
       <c r="K88" s="2">
         <v>0</v>
       </c>
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0</v>
+      </c>
+      <c r="O88" s="5">
+        <v>0</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0</v>
+      </c>
       <c r="Q88" s="3">
         <v>0</v>
       </c>
@@ -4867,6 +6082,21 @@
       <c r="K89" s="2">
         <v>1</v>
       </c>
+      <c r="L89" s="5">
+        <v>5</v>
+      </c>
+      <c r="M89" s="5">
+        <v>0</v>
+      </c>
+      <c r="N89" s="5">
+        <v>1</v>
+      </c>
+      <c r="O89" s="5">
+        <v>0</v>
+      </c>
+      <c r="P89" s="5">
+        <v>1</v>
+      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4917,6 +6147,21 @@
       <c r="K90" s="2">
         <v>0</v>
       </c>
+      <c r="L90" s="5">
+        <v>2</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0</v>
+      </c>
+      <c r="O90" s="5">
+        <v>1</v>
+      </c>
+      <c r="P90" s="5">
+        <v>0</v>
+      </c>
       <c r="Q90" s="3">
         <v>1</v>
       </c>
@@ -4967,6 +6212,21 @@
       <c r="K91" s="2">
         <v>1</v>
       </c>
+      <c r="L91" s="5">
+        <v>1</v>
+      </c>
+      <c r="M91" s="5">
+        <v>0</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0</v>
+      </c>
+      <c r="P91" s="5">
+        <v>1</v>
+      </c>
       <c r="Q91" s="3">
         <v>2</v>
       </c>
@@ -5017,6 +6277,21 @@
       <c r="K92" s="2">
         <v>0</v>
       </c>
+      <c r="L92" s="5">
+        <v>1</v>
+      </c>
+      <c r="M92" s="5">
+        <v>0</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0</v>
+      </c>
+      <c r="P92" s="5">
+        <v>1</v>
+      </c>
       <c r="Q92" s="3">
         <v>1</v>
       </c>
@@ -5067,6 +6342,21 @@
       <c r="K93" s="2">
         <v>1</v>
       </c>
+      <c r="L93" s="5">
+        <v>1</v>
+      </c>
+      <c r="M93" s="5">
+        <v>0</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0</v>
+      </c>
+      <c r="O93" s="5">
+        <v>0</v>
+      </c>
+      <c r="P93" s="5">
+        <v>1</v>
+      </c>
       <c r="Q93" s="3">
         <v>0</v>
       </c>
@@ -5115,6 +6405,21 @@
         <v>1</v>
       </c>
       <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <v>0</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0</v>
+      </c>
+      <c r="P94" s="5">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
@@ -5170,6 +6475,21 @@
       <c r="K95" s="2">
         <v>1</v>
       </c>
+      <c r="L95" s="5">
+        <v>0</v>
+      </c>
+      <c r="M95" s="5">
+        <v>0</v>
+      </c>
+      <c r="N95" s="5">
+        <v>0</v>
+      </c>
+      <c r="O95" s="5">
+        <v>0</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0</v>
+      </c>
       <c r="Q95" s="3">
         <v>0</v>
       </c>
@@ -5220,6 +6540,21 @@
       <c r="K96" s="2">
         <v>0</v>
       </c>
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5">
+        <v>0</v>
+      </c>
+      <c r="N96" s="5">
+        <v>0</v>
+      </c>
+      <c r="O96" s="5">
+        <v>0</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0</v>
+      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5270,6 +6605,21 @@
       <c r="K97" s="2">
         <v>1</v>
       </c>
+      <c r="L97" s="5">
+        <v>0</v>
+      </c>
+      <c r="M97" s="5">
+        <v>0</v>
+      </c>
+      <c r="N97" s="5">
+        <v>0</v>
+      </c>
+      <c r="O97" s="5">
+        <v>0</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0</v>
+      </c>
       <c r="Q97" s="3">
         <v>0</v>
       </c>
@@ -5320,6 +6670,21 @@
       <c r="K98" s="2">
         <v>0</v>
       </c>
+      <c r="L98" s="5">
+        <v>0</v>
+      </c>
+      <c r="M98" s="5">
+        <v>0</v>
+      </c>
+      <c r="N98" s="5">
+        <v>0</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0</v>
+      </c>
       <c r="Q98" s="3">
         <v>0</v>
       </c>
@@ -5370,6 +6735,21 @@
       <c r="K99" s="2">
         <v>1</v>
       </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
+      <c r="M99" s="5">
+        <v>0</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0</v>
+      </c>
+      <c r="O99" s="5">
+        <v>0</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0</v>
+      </c>
       <c r="Q99" s="3">
         <v>0</v>
       </c>
@@ -5420,6 +6800,21 @@
       <c r="K100" s="2">
         <v>0</v>
       </c>
+      <c r="L100" s="5">
+        <v>0</v>
+      </c>
+      <c r="M100" s="5">
+        <v>0</v>
+      </c>
+      <c r="N100" s="5">
+        <v>0</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0</v>
+      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5470,6 +6865,21 @@
       <c r="K101" s="2">
         <v>1</v>
       </c>
+      <c r="L101" s="5">
+        <v>0</v>
+      </c>
+      <c r="M101" s="5">
+        <v>0</v>
+      </c>
+      <c r="N101" s="5">
+        <v>0</v>
+      </c>
+      <c r="O101" s="5">
+        <v>0</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0</v>
+      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5520,6 +6930,21 @@
       <c r="K102" s="2">
         <v>0</v>
       </c>
+      <c r="L102" s="5">
+        <v>0</v>
+      </c>
+      <c r="M102" s="5">
+        <v>0</v>
+      </c>
+      <c r="N102" s="5">
+        <v>0</v>
+      </c>
+      <c r="O102" s="5">
+        <v>0</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0</v>
+      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5569,6 +6994,21 @@
       </c>
       <c r="K103" s="2">
         <v>1</v>
+      </c>
+      <c r="L103" s="5">
+        <v>0</v>
+      </c>
+      <c r="M103" s="5">
+        <v>0</v>
+      </c>
+      <c r="N103" s="5">
+        <v>0</v>
+      </c>
+      <c r="O103" s="5">
+        <v>0</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0</v>
       </c>
       <c r="Q103" s="3">
         <v>0</v>
@@ -5645,6 +7085,21 @@
       <c r="K105" s="2">
         <v>0</v>
       </c>
+      <c r="L105" s="5">
+        <v>0</v>
+      </c>
+      <c r="M105" s="5">
+        <v>0</v>
+      </c>
+      <c r="N105" s="5">
+        <v>0</v>
+      </c>
+      <c r="O105" s="5">
+        <v>0</v>
+      </c>
+      <c r="P105" s="5">
+        <v>0</v>
+      </c>
       <c r="Q105" s="3">
         <v>0</v>
       </c>
@@ -5695,6 +7150,21 @@
       <c r="K106" s="2">
         <v>1</v>
       </c>
+      <c r="L106" s="5">
+        <v>6</v>
+      </c>
+      <c r="M106" s="5">
+        <v>0</v>
+      </c>
+      <c r="N106" s="5">
+        <v>1</v>
+      </c>
+      <c r="O106" s="5">
+        <v>1</v>
+      </c>
+      <c r="P106" s="5">
+        <v>0</v>
+      </c>
       <c r="Q106" s="3">
         <v>0</v>
       </c>
@@ -5745,6 +7215,21 @@
       <c r="K107" s="2">
         <v>0</v>
       </c>
+      <c r="L107" s="5">
+        <v>3</v>
+      </c>
+      <c r="M107" s="5">
+        <v>0</v>
+      </c>
+      <c r="N107" s="5">
+        <v>0</v>
+      </c>
+      <c r="O107" s="5">
+        <v>1</v>
+      </c>
+      <c r="P107" s="5">
+        <v>1</v>
+      </c>
       <c r="Q107" s="3">
         <v>0</v>
       </c>
@@ -5795,6 +7280,21 @@
       <c r="K108" s="2">
         <v>1</v>
       </c>
+      <c r="L108" s="5">
+        <v>2</v>
+      </c>
+      <c r="M108" s="5">
+        <v>0</v>
+      </c>
+      <c r="N108" s="5">
+        <v>0</v>
+      </c>
+      <c r="O108" s="5">
+        <v>1</v>
+      </c>
+      <c r="P108" s="5">
+        <v>0</v>
+      </c>
       <c r="Q108" s="3">
         <v>0</v>
       </c>
@@ -5845,6 +7345,21 @@
       <c r="K109" s="2">
         <v>0</v>
       </c>
+      <c r="L109" s="5">
+        <v>1</v>
+      </c>
+      <c r="M109" s="5">
+        <v>0</v>
+      </c>
+      <c r="N109" s="5">
+        <v>0</v>
+      </c>
+      <c r="O109" s="5">
+        <v>0</v>
+      </c>
+      <c r="P109" s="5">
+        <v>1</v>
+      </c>
       <c r="Q109" s="3">
         <v>2</v>
       </c>
@@ -5895,6 +7410,21 @@
       <c r="K110" s="2">
         <v>1</v>
       </c>
+      <c r="L110" s="5">
+        <v>1</v>
+      </c>
+      <c r="M110" s="5">
+        <v>0</v>
+      </c>
+      <c r="N110" s="5">
+        <v>0</v>
+      </c>
+      <c r="O110" s="5">
+        <v>0</v>
+      </c>
+      <c r="P110" s="5">
+        <v>1</v>
+      </c>
       <c r="Q110" s="3">
         <v>1</v>
       </c>
@@ -5945,6 +7475,21 @@
       <c r="K111" s="2">
         <v>0</v>
       </c>
+      <c r="L111" s="5">
+        <v>1</v>
+      </c>
+      <c r="M111" s="5">
+        <v>0</v>
+      </c>
+      <c r="N111" s="5">
+        <v>0</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0</v>
+      </c>
+      <c r="P111" s="5">
+        <v>1</v>
+      </c>
       <c r="Q111" s="3">
         <v>0</v>
       </c>
@@ -5994,6 +7539,21 @@
       </c>
       <c r="K112" s="2">
         <v>1</v>
+      </c>
+      <c r="L112" s="5">
+        <v>0</v>
+      </c>
+      <c r="M112" s="5">
+        <v>0</v>
+      </c>
+      <c r="N112" s="5">
+        <v>0</v>
+      </c>
+      <c r="O112" s="5">
+        <v>0</v>
+      </c>
+      <c r="P112" s="5">
+        <v>0</v>
       </c>
       <c r="Q112" s="3">
         <v>0</v>
@@ -6048,6 +7608,21 @@
       <c r="K113" s="2">
         <v>0</v>
       </c>
+      <c r="L113" s="5">
+        <v>0</v>
+      </c>
+      <c r="M113" s="5">
+        <v>0</v>
+      </c>
+      <c r="N113" s="5">
+        <v>0</v>
+      </c>
+      <c r="O113" s="5">
+        <v>0</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0</v>
+      </c>
       <c r="Q113" s="3">
         <v>0</v>
       </c>
@@ -6098,6 +7673,21 @@
       <c r="K114" s="2">
         <v>1</v>
       </c>
+      <c r="L114" s="5">
+        <v>0</v>
+      </c>
+      <c r="M114" s="5">
+        <v>0</v>
+      </c>
+      <c r="N114" s="5">
+        <v>0</v>
+      </c>
+      <c r="O114" s="5">
+        <v>0</v>
+      </c>
+      <c r="P114" s="5">
+        <v>0</v>
+      </c>
       <c r="Q114" s="3">
         <v>0</v>
       </c>
@@ -6148,6 +7738,21 @@
       <c r="K115" s="2">
         <v>0</v>
       </c>
+      <c r="L115" s="5">
+        <v>0</v>
+      </c>
+      <c r="M115" s="5">
+        <v>0</v>
+      </c>
+      <c r="N115" s="5">
+        <v>0</v>
+      </c>
+      <c r="O115" s="5">
+        <v>0</v>
+      </c>
+      <c r="P115" s="5">
+        <v>0</v>
+      </c>
       <c r="Q115" s="3">
         <v>0</v>
       </c>
@@ -6198,6 +7803,21 @@
       <c r="K116" s="2">
         <v>1</v>
       </c>
+      <c r="L116" s="5">
+        <v>0</v>
+      </c>
+      <c r="M116" s="5">
+        <v>0</v>
+      </c>
+      <c r="N116" s="5">
+        <v>0</v>
+      </c>
+      <c r="O116" s="5">
+        <v>0</v>
+      </c>
+      <c r="P116" s="5">
+        <v>0</v>
+      </c>
       <c r="Q116" s="3">
         <v>0</v>
       </c>
@@ -6248,6 +7868,21 @@
       <c r="K117" s="2">
         <v>0</v>
       </c>
+      <c r="L117" s="5">
+        <v>0</v>
+      </c>
+      <c r="M117" s="5">
+        <v>0</v>
+      </c>
+      <c r="N117" s="5">
+        <v>0</v>
+      </c>
+      <c r="O117" s="5">
+        <v>0</v>
+      </c>
+      <c r="P117" s="5">
+        <v>0</v>
+      </c>
       <c r="Q117" s="3">
         <v>0</v>
       </c>
@@ -6298,6 +7933,21 @@
       <c r="K118" s="2">
         <v>1</v>
       </c>
+      <c r="L118" s="5">
+        <v>0</v>
+      </c>
+      <c r="M118" s="5">
+        <v>0</v>
+      </c>
+      <c r="N118" s="5">
+        <v>0</v>
+      </c>
+      <c r="O118" s="5">
+        <v>0</v>
+      </c>
+      <c r="P118" s="5">
+        <v>0</v>
+      </c>
       <c r="Q118" s="3">
         <v>0</v>
       </c>
@@ -6348,6 +7998,21 @@
       <c r="K119" s="2">
         <v>0</v>
       </c>
+      <c r="L119" s="5">
+        <v>0</v>
+      </c>
+      <c r="M119" s="5">
+        <v>0</v>
+      </c>
+      <c r="N119" s="5">
+        <v>0</v>
+      </c>
+      <c r="O119" s="5">
+        <v>0</v>
+      </c>
+      <c r="P119" s="5">
+        <v>0</v>
+      </c>
       <c r="Q119" s="3">
         <v>0</v>
       </c>
@@ -6397,6 +8062,21 @@
       </c>
       <c r="K120" s="2">
         <v>1</v>
+      </c>
+      <c r="L120" s="5">
+        <v>0</v>
+      </c>
+      <c r="M120" s="5">
+        <v>0</v>
+      </c>
+      <c r="N120" s="5">
+        <v>0</v>
+      </c>
+      <c r="O120" s="5">
+        <v>0</v>
+      </c>
+      <c r="P120" s="5">
+        <v>0</v>
       </c>
       <c r="Q120" s="3">
         <v>0</v>
@@ -6473,6 +8153,21 @@
       <c r="K122" s="2">
         <v>0</v>
       </c>
+      <c r="L122" s="5">
+        <v>0</v>
+      </c>
+      <c r="M122" s="5">
+        <v>0</v>
+      </c>
+      <c r="N122" s="5">
+        <v>0</v>
+      </c>
+      <c r="O122" s="5">
+        <v>0</v>
+      </c>
+      <c r="P122" s="5">
+        <v>0</v>
+      </c>
       <c r="Q122" s="3">
         <v>0</v>
       </c>
@@ -6523,6 +8218,21 @@
       <c r="K123" s="2">
         <v>1</v>
       </c>
+      <c r="L123" s="5">
+        <v>7</v>
+      </c>
+      <c r="M123" s="5">
+        <v>0</v>
+      </c>
+      <c r="N123" s="5">
+        <v>1</v>
+      </c>
+      <c r="O123" s="5">
+        <v>1</v>
+      </c>
+      <c r="P123" s="5">
+        <v>1</v>
+      </c>
       <c r="Q123" s="3">
         <v>0</v>
       </c>
@@ -6573,6 +8283,21 @@
       <c r="K124" s="2">
         <v>0</v>
       </c>
+      <c r="L124" s="5">
+        <v>3</v>
+      </c>
+      <c r="M124" s="5">
+        <v>0</v>
+      </c>
+      <c r="N124" s="5">
+        <v>0</v>
+      </c>
+      <c r="O124" s="5">
+        <v>1</v>
+      </c>
+      <c r="P124" s="5">
+        <v>1</v>
+      </c>
       <c r="Q124" s="3">
         <v>1</v>
       </c>
@@ -6623,6 +8348,21 @@
       <c r="K125" s="2">
         <v>1</v>
       </c>
+      <c r="L125" s="5">
+        <v>2</v>
+      </c>
+      <c r="M125" s="5">
+        <v>0</v>
+      </c>
+      <c r="N125" s="5">
+        <v>0</v>
+      </c>
+      <c r="O125" s="5">
+        <v>1</v>
+      </c>
+      <c r="P125" s="5">
+        <v>0</v>
+      </c>
       <c r="Q125" s="3">
         <v>1</v>
       </c>
@@ -6673,6 +8413,21 @@
       <c r="K126" s="2">
         <v>0</v>
       </c>
+      <c r="L126" s="5">
+        <v>1</v>
+      </c>
+      <c r="M126" s="5">
+        <v>0</v>
+      </c>
+      <c r="N126" s="5">
+        <v>0</v>
+      </c>
+      <c r="O126" s="5">
+        <v>0</v>
+      </c>
+      <c r="P126" s="5">
+        <v>1</v>
+      </c>
       <c r="Q126" s="3">
         <v>3</v>
       </c>
@@ -6723,6 +8478,21 @@
       <c r="K127" s="2">
         <v>1</v>
       </c>
+      <c r="L127" s="5">
+        <v>1</v>
+      </c>
+      <c r="M127" s="5">
+        <v>0</v>
+      </c>
+      <c r="N127" s="5">
+        <v>0</v>
+      </c>
+      <c r="O127" s="5">
+        <v>0</v>
+      </c>
+      <c r="P127" s="5">
+        <v>1</v>
+      </c>
       <c r="Q127" s="3">
         <v>2</v>
       </c>
@@ -6773,6 +8543,21 @@
       <c r="K128" s="2">
         <v>0</v>
       </c>
+      <c r="L128" s="5">
+        <v>1</v>
+      </c>
+      <c r="M128" s="5">
+        <v>0</v>
+      </c>
+      <c r="N128" s="5">
+        <v>0</v>
+      </c>
+      <c r="O128" s="5">
+        <v>0</v>
+      </c>
+      <c r="P128" s="5">
+        <v>1</v>
+      </c>
       <c r="Q128" s="3">
         <v>1</v>
       </c>
@@ -6786,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V128" s="4">
         <v>0</v>
@@ -6826,6 +8611,21 @@
       <c r="K129" s="2">
         <v>1</v>
       </c>
+      <c r="L129" s="5">
+        <v>1</v>
+      </c>
+      <c r="M129" s="5">
+        <v>0</v>
+      </c>
+      <c r="N129" s="5">
+        <v>0</v>
+      </c>
+      <c r="O129" s="5">
+        <v>0</v>
+      </c>
+      <c r="P129" s="5">
+        <v>1</v>
+      </c>
       <c r="Q129" s="3">
         <v>0</v>
       </c>
@@ -6876,6 +8676,21 @@
       <c r="K130" s="2">
         <v>0</v>
       </c>
+      <c r="L130" s="5">
+        <v>0</v>
+      </c>
+      <c r="M130" s="5">
+        <v>0</v>
+      </c>
+      <c r="N130" s="5">
+        <v>0</v>
+      </c>
+      <c r="O130" s="5">
+        <v>0</v>
+      </c>
+      <c r="P130" s="5">
+        <v>0</v>
+      </c>
       <c r="Q130" s="3">
         <v>0</v>
       </c>
@@ -6926,6 +8741,21 @@
       <c r="K131" s="2">
         <v>1</v>
       </c>
+      <c r="L131" s="5">
+        <v>0</v>
+      </c>
+      <c r="M131" s="5">
+        <v>0</v>
+      </c>
+      <c r="N131" s="5">
+        <v>0</v>
+      </c>
+      <c r="O131" s="5">
+        <v>0</v>
+      </c>
+      <c r="P131" s="5">
+        <v>0</v>
+      </c>
       <c r="Q131" s="3">
         <v>0</v>
       </c>
@@ -6976,6 +8806,21 @@
       <c r="K132" s="2">
         <v>0</v>
       </c>
+      <c r="L132" s="5">
+        <v>0</v>
+      </c>
+      <c r="M132" s="5">
+        <v>0</v>
+      </c>
+      <c r="N132" s="5">
+        <v>0</v>
+      </c>
+      <c r="O132" s="5">
+        <v>0</v>
+      </c>
+      <c r="P132" s="5">
+        <v>0</v>
+      </c>
       <c r="Q132" s="3">
         <v>0</v>
       </c>
@@ -7026,6 +8871,21 @@
       <c r="K133" s="2">
         <v>1</v>
       </c>
+      <c r="L133" s="5">
+        <v>0</v>
+      </c>
+      <c r="M133" s="5">
+        <v>0</v>
+      </c>
+      <c r="N133" s="5">
+        <v>0</v>
+      </c>
+      <c r="O133" s="5">
+        <v>0</v>
+      </c>
+      <c r="P133" s="5">
+        <v>0</v>
+      </c>
       <c r="Q133" s="3">
         <v>0</v>
       </c>
@@ -7076,6 +8936,21 @@
       <c r="K134" s="2">
         <v>0</v>
       </c>
+      <c r="L134" s="5">
+        <v>0</v>
+      </c>
+      <c r="M134" s="5">
+        <v>0</v>
+      </c>
+      <c r="N134" s="5">
+        <v>0</v>
+      </c>
+      <c r="O134" s="5">
+        <v>0</v>
+      </c>
+      <c r="P134" s="5">
+        <v>0</v>
+      </c>
       <c r="Q134" s="3">
         <v>0</v>
       </c>
@@ -7126,6 +9001,21 @@
       <c r="K135" s="2">
         <v>1</v>
       </c>
+      <c r="L135" s="5">
+        <v>0</v>
+      </c>
+      <c r="M135" s="5">
+        <v>0</v>
+      </c>
+      <c r="N135" s="5">
+        <v>0</v>
+      </c>
+      <c r="O135" s="5">
+        <v>0</v>
+      </c>
+      <c r="P135" s="5">
+        <v>0</v>
+      </c>
       <c r="Q135" s="3">
         <v>0</v>
       </c>
@@ -7176,6 +9066,21 @@
       <c r="K136" s="2">
         <v>0</v>
       </c>
+      <c r="L136" s="5">
+        <v>0</v>
+      </c>
+      <c r="M136" s="5">
+        <v>0</v>
+      </c>
+      <c r="N136" s="5">
+        <v>0</v>
+      </c>
+      <c r="O136" s="5">
+        <v>0</v>
+      </c>
+      <c r="P136" s="5">
+        <v>0</v>
+      </c>
       <c r="Q136" s="3">
         <v>0</v>
       </c>
@@ -7225,6 +9130,21 @@
       </c>
       <c r="K137" s="2">
         <v>1</v>
+      </c>
+      <c r="L137" s="5">
+        <v>0</v>
+      </c>
+      <c r="M137" s="5">
+        <v>0</v>
+      </c>
+      <c r="N137" s="5">
+        <v>0</v>
+      </c>
+      <c r="O137" s="5">
+        <v>0</v>
+      </c>
+      <c r="P137" s="5">
+        <v>0</v>
       </c>
       <c r="Q137" s="3">
         <v>0</v>
@@ -7301,6 +9221,21 @@
       <c r="K139" s="2">
         <v>0</v>
       </c>
+      <c r="L139" s="5">
+        <v>0</v>
+      </c>
+      <c r="M139" s="5">
+        <v>0</v>
+      </c>
+      <c r="N139" s="5">
+        <v>0</v>
+      </c>
+      <c r="O139" s="5">
+        <v>0</v>
+      </c>
+      <c r="P139" s="5">
+        <v>0</v>
+      </c>
       <c r="Q139" s="3">
         <v>0</v>
       </c>
@@ -7351,6 +9286,21 @@
       <c r="K140" s="2">
         <v>1</v>
       </c>
+      <c r="L140" s="5">
+        <v>8</v>
+      </c>
+      <c r="M140" s="5">
+        <v>1</v>
+      </c>
+      <c r="N140" s="5">
+        <v>0</v>
+      </c>
+      <c r="O140" s="5">
+        <v>0</v>
+      </c>
+      <c r="P140" s="5">
+        <v>0</v>
+      </c>
       <c r="Q140" s="3">
         <v>0</v>
       </c>
@@ -7401,6 +9351,21 @@
       <c r="K141" s="2">
         <v>0</v>
       </c>
+      <c r="L141" s="5">
+        <v>4</v>
+      </c>
+      <c r="M141" s="5">
+        <v>0</v>
+      </c>
+      <c r="N141" s="5">
+        <v>1</v>
+      </c>
+      <c r="O141" s="5">
+        <v>0</v>
+      </c>
+      <c r="P141" s="5">
+        <v>0</v>
+      </c>
       <c r="Q141" s="3">
         <v>0</v>
       </c>
@@ -7451,6 +9416,21 @@
       <c r="K142" s="2">
         <v>1</v>
       </c>
+      <c r="L142" s="5">
+        <v>2</v>
+      </c>
+      <c r="M142" s="5">
+        <v>0</v>
+      </c>
+      <c r="N142" s="5">
+        <v>0</v>
+      </c>
+      <c r="O142" s="5">
+        <v>1</v>
+      </c>
+      <c r="P142" s="5">
+        <v>0</v>
+      </c>
       <c r="Q142" s="3">
         <v>2</v>
       </c>
@@ -7501,6 +9481,21 @@
       <c r="K143" s="2">
         <v>0</v>
       </c>
+      <c r="L143" s="5">
+        <v>2</v>
+      </c>
+      <c r="M143" s="5">
+        <v>0</v>
+      </c>
+      <c r="N143" s="5">
+        <v>0</v>
+      </c>
+      <c r="O143" s="5">
+        <v>1</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0</v>
+      </c>
       <c r="Q143" s="3">
         <v>0</v>
       </c>
@@ -7551,6 +9546,21 @@
       <c r="K144" s="2">
         <v>1</v>
       </c>
+      <c r="L144" s="5">
+        <v>1</v>
+      </c>
+      <c r="M144" s="5">
+        <v>0</v>
+      </c>
+      <c r="N144" s="5">
+        <v>0</v>
+      </c>
+      <c r="O144" s="5">
+        <v>0</v>
+      </c>
+      <c r="P144" s="5">
+        <v>1</v>
+      </c>
       <c r="Q144" s="3">
         <v>3</v>
       </c>
@@ -7600,6 +9610,21 @@
       </c>
       <c r="K145" s="2">
         <v>0</v>
+      </c>
+      <c r="L145" s="5">
+        <v>1</v>
+      </c>
+      <c r="M145" s="5">
+        <v>0</v>
+      </c>
+      <c r="N145" s="5">
+        <v>0</v>
+      </c>
+      <c r="O145" s="5">
+        <v>0</v>
+      </c>
+      <c r="P145" s="5">
+        <v>1</v>
       </c>
       <c r="Q145" s="3">
         <v>2</v>
@@ -7654,6 +9679,21 @@
       <c r="K146" s="2">
         <v>1</v>
       </c>
+      <c r="L146" s="5">
+        <v>1</v>
+      </c>
+      <c r="M146" s="5">
+        <v>0</v>
+      </c>
+      <c r="N146" s="5">
+        <v>0</v>
+      </c>
+      <c r="O146" s="5">
+        <v>0</v>
+      </c>
+      <c r="P146" s="5">
+        <v>1</v>
+      </c>
       <c r="Q146" s="3">
         <v>1</v>
       </c>
@@ -7704,6 +9744,21 @@
       <c r="K147" s="2">
         <v>0</v>
       </c>
+      <c r="L147" s="5">
+        <v>1</v>
+      </c>
+      <c r="M147" s="5">
+        <v>0</v>
+      </c>
+      <c r="N147" s="5">
+        <v>0</v>
+      </c>
+      <c r="O147" s="5">
+        <v>0</v>
+      </c>
+      <c r="P147" s="5">
+        <v>1</v>
+      </c>
       <c r="Q147" s="3">
         <v>0</v>
       </c>
@@ -7754,6 +9809,21 @@
       <c r="K148" s="2">
         <v>1</v>
       </c>
+      <c r="L148" s="5">
+        <v>0</v>
+      </c>
+      <c r="M148" s="5">
+        <v>0</v>
+      </c>
+      <c r="N148" s="5">
+        <v>0</v>
+      </c>
+      <c r="O148" s="5">
+        <v>0</v>
+      </c>
+      <c r="P148" s="5">
+        <v>0</v>
+      </c>
       <c r="Q148" s="3">
         <v>0</v>
       </c>
@@ -7804,6 +9874,21 @@
       <c r="K149" s="2">
         <v>0</v>
       </c>
+      <c r="L149" s="5">
+        <v>0</v>
+      </c>
+      <c r="M149" s="5">
+        <v>0</v>
+      </c>
+      <c r="N149" s="5">
+        <v>0</v>
+      </c>
+      <c r="O149" s="5">
+        <v>0</v>
+      </c>
+      <c r="P149" s="5">
+        <v>0</v>
+      </c>
       <c r="Q149" s="3">
         <v>0</v>
       </c>
@@ -7854,6 +9939,21 @@
       <c r="K150" s="2">
         <v>1</v>
       </c>
+      <c r="L150" s="5">
+        <v>0</v>
+      </c>
+      <c r="M150" s="5">
+        <v>0</v>
+      </c>
+      <c r="N150" s="5">
+        <v>0</v>
+      </c>
+      <c r="O150" s="5">
+        <v>0</v>
+      </c>
+      <c r="P150" s="5">
+        <v>0</v>
+      </c>
       <c r="Q150" s="3">
         <v>0</v>
       </c>
@@ -7904,6 +10004,21 @@
       <c r="K151" s="2">
         <v>0</v>
       </c>
+      <c r="L151" s="5">
+        <v>0</v>
+      </c>
+      <c r="M151" s="5">
+        <v>0</v>
+      </c>
+      <c r="N151" s="5">
+        <v>0</v>
+      </c>
+      <c r="O151" s="5">
+        <v>0</v>
+      </c>
+      <c r="P151" s="5">
+        <v>0</v>
+      </c>
       <c r="Q151" s="3">
         <v>0</v>
       </c>
@@ -7954,6 +10069,21 @@
       <c r="K152" s="2">
         <v>1</v>
       </c>
+      <c r="L152" s="5">
+        <v>0</v>
+      </c>
+      <c r="M152" s="5">
+        <v>0</v>
+      </c>
+      <c r="N152" s="5">
+        <v>0</v>
+      </c>
+      <c r="O152" s="5">
+        <v>0</v>
+      </c>
+      <c r="P152" s="5">
+        <v>0</v>
+      </c>
       <c r="Q152" s="3">
         <v>0</v>
       </c>
@@ -8004,6 +10134,21 @@
       <c r="K153" s="2">
         <v>0</v>
       </c>
+      <c r="L153" s="5">
+        <v>0</v>
+      </c>
+      <c r="M153" s="5">
+        <v>0</v>
+      </c>
+      <c r="N153" s="5">
+        <v>0</v>
+      </c>
+      <c r="O153" s="5">
+        <v>0</v>
+      </c>
+      <c r="P153" s="5">
+        <v>0</v>
+      </c>
       <c r="Q153" s="3">
         <v>0</v>
       </c>
@@ -8053,6 +10198,21 @@
       </c>
       <c r="K154" s="2">
         <v>1</v>
+      </c>
+      <c r="L154" s="5">
+        <v>0</v>
+      </c>
+      <c r="M154" s="5">
+        <v>0</v>
+      </c>
+      <c r="N154" s="5">
+        <v>0</v>
+      </c>
+      <c r="O154" s="5">
+        <v>0</v>
+      </c>
+      <c r="P154" s="5">
+        <v>0</v>
       </c>
       <c r="Q154" s="3">
         <v>0</v>
@@ -8129,6 +10289,21 @@
       <c r="K156" s="2">
         <v>0</v>
       </c>
+      <c r="L156" s="5">
+        <v>0</v>
+      </c>
+      <c r="M156" s="5">
+        <v>0</v>
+      </c>
+      <c r="N156" s="5">
+        <v>0</v>
+      </c>
+      <c r="O156" s="5">
+        <v>0</v>
+      </c>
+      <c r="P156" s="5">
+        <v>0</v>
+      </c>
       <c r="Q156" s="3">
         <v>0</v>
       </c>
@@ -8179,6 +10354,21 @@
       <c r="K157" s="2">
         <v>1</v>
       </c>
+      <c r="L157" s="5">
+        <v>9</v>
+      </c>
+      <c r="M157" s="5">
+        <v>1</v>
+      </c>
+      <c r="N157" s="5">
+        <v>0</v>
+      </c>
+      <c r="O157" s="5">
+        <v>0</v>
+      </c>
+      <c r="P157" s="5">
+        <v>1</v>
+      </c>
       <c r="Q157" s="3">
         <v>0</v>
       </c>
@@ -8229,6 +10419,21 @@
       <c r="K158" s="2">
         <v>0</v>
       </c>
+      <c r="L158" s="5">
+        <v>4</v>
+      </c>
+      <c r="M158" s="5">
+        <v>0</v>
+      </c>
+      <c r="N158" s="5">
+        <v>1</v>
+      </c>
+      <c r="O158" s="5">
+        <v>0</v>
+      </c>
+      <c r="P158" s="5">
+        <v>0</v>
+      </c>
       <c r="Q158" s="3">
         <v>1</v>
       </c>
@@ -8279,6 +10484,21 @@
       <c r="K159" s="2">
         <v>1</v>
       </c>
+      <c r="L159" s="5">
+        <v>3</v>
+      </c>
+      <c r="M159" s="5">
+        <v>0</v>
+      </c>
+      <c r="N159" s="5">
+        <v>0</v>
+      </c>
+      <c r="O159" s="5">
+        <v>1</v>
+      </c>
+      <c r="P159" s="5">
+        <v>1</v>
+      </c>
       <c r="Q159" s="3">
         <v>0</v>
       </c>
@@ -8329,6 +10549,21 @@
       <c r="K160" s="2">
         <v>0</v>
       </c>
+      <c r="L160" s="5">
+        <v>2</v>
+      </c>
+      <c r="M160" s="5">
+        <v>0</v>
+      </c>
+      <c r="N160" s="5">
+        <v>0</v>
+      </c>
+      <c r="O160" s="5">
+        <v>1</v>
+      </c>
+      <c r="P160" s="5">
+        <v>0</v>
+      </c>
       <c r="Q160" s="3">
         <v>1</v>
       </c>
@@ -8379,6 +10614,21 @@
       <c r="K161" s="2">
         <v>1</v>
       </c>
+      <c r="L161" s="5">
+        <v>1</v>
+      </c>
+      <c r="M161" s="5">
+        <v>0</v>
+      </c>
+      <c r="N161" s="5">
+        <v>0</v>
+      </c>
+      <c r="O161" s="5">
+        <v>0</v>
+      </c>
+      <c r="P161" s="5">
+        <v>1</v>
+      </c>
       <c r="Q161" s="3">
         <v>4</v>
       </c>
@@ -8428,6 +10678,21 @@
       </c>
       <c r="K162" s="2">
         <v>0</v>
+      </c>
+      <c r="L162" s="5">
+        <v>1</v>
+      </c>
+      <c r="M162" s="5">
+        <v>0</v>
+      </c>
+      <c r="N162" s="5">
+        <v>0</v>
+      </c>
+      <c r="O162" s="5">
+        <v>0</v>
+      </c>
+      <c r="P162" s="5">
+        <v>1</v>
       </c>
       <c r="Q162" s="3">
         <v>3</v>
@@ -8482,6 +10747,21 @@
       <c r="K163" s="2">
         <v>1</v>
       </c>
+      <c r="L163" s="5">
+        <v>1</v>
+      </c>
+      <c r="M163" s="5">
+        <v>0</v>
+      </c>
+      <c r="N163" s="5">
+        <v>0</v>
+      </c>
+      <c r="O163" s="5">
+        <v>0</v>
+      </c>
+      <c r="P163" s="5">
+        <v>1</v>
+      </c>
       <c r="Q163" s="3">
         <v>2</v>
       </c>
@@ -8532,6 +10812,21 @@
       <c r="K164" s="2">
         <v>0</v>
       </c>
+      <c r="L164" s="5">
+        <v>1</v>
+      </c>
+      <c r="M164" s="5">
+        <v>0</v>
+      </c>
+      <c r="N164" s="5">
+        <v>0</v>
+      </c>
+      <c r="O164" s="5">
+        <v>0</v>
+      </c>
+      <c r="P164" s="5">
+        <v>1</v>
+      </c>
       <c r="Q164" s="3">
         <v>1</v>
       </c>
@@ -8542,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="T164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V164" s="4">
         <v>0</v>
@@ -8582,6 +10877,21 @@
       <c r="K165" s="2">
         <v>1</v>
       </c>
+      <c r="L165" s="5">
+        <v>1</v>
+      </c>
+      <c r="M165" s="5">
+        <v>0</v>
+      </c>
+      <c r="N165" s="5">
+        <v>0</v>
+      </c>
+      <c r="O165" s="5">
+        <v>0</v>
+      </c>
+      <c r="P165" s="5">
+        <v>1</v>
+      </c>
       <c r="Q165" s="3">
         <v>0</v>
       </c>
@@ -8632,6 +10942,21 @@
       <c r="K166" s="2">
         <v>0</v>
       </c>
+      <c r="L166" s="5">
+        <v>0</v>
+      </c>
+      <c r="M166" s="5">
+        <v>0</v>
+      </c>
+      <c r="N166" s="5">
+        <v>0</v>
+      </c>
+      <c r="O166" s="5">
+        <v>0</v>
+      </c>
+      <c r="P166" s="5">
+        <v>0</v>
+      </c>
       <c r="Q166" s="3">
         <v>0</v>
       </c>
@@ -8682,6 +11007,21 @@
       <c r="K167" s="2">
         <v>1</v>
       </c>
+      <c r="L167" s="5">
+        <v>0</v>
+      </c>
+      <c r="M167" s="5">
+        <v>0</v>
+      </c>
+      <c r="N167" s="5">
+        <v>0</v>
+      </c>
+      <c r="O167" s="5">
+        <v>0</v>
+      </c>
+      <c r="P167" s="5">
+        <v>0</v>
+      </c>
       <c r="Q167" s="3">
         <v>0</v>
       </c>
@@ -8732,6 +11072,21 @@
       <c r="K168" s="2">
         <v>0</v>
       </c>
+      <c r="L168" s="5">
+        <v>0</v>
+      </c>
+      <c r="M168" s="5">
+        <v>0</v>
+      </c>
+      <c r="N168" s="5">
+        <v>0</v>
+      </c>
+      <c r="O168" s="5">
+        <v>0</v>
+      </c>
+      <c r="P168" s="5">
+        <v>0</v>
+      </c>
       <c r="Q168" s="3">
         <v>0</v>
       </c>
@@ -8782,6 +11137,21 @@
       <c r="K169" s="2">
         <v>1</v>
       </c>
+      <c r="L169" s="5">
+        <v>0</v>
+      </c>
+      <c r="M169" s="5">
+        <v>0</v>
+      </c>
+      <c r="N169" s="5">
+        <v>0</v>
+      </c>
+      <c r="O169" s="5">
+        <v>0</v>
+      </c>
+      <c r="P169" s="5">
+        <v>0</v>
+      </c>
       <c r="Q169" s="3">
         <v>0</v>
       </c>
@@ -8832,6 +11202,21 @@
       <c r="K170" s="2">
         <v>0</v>
       </c>
+      <c r="L170" s="5">
+        <v>0</v>
+      </c>
+      <c r="M170" s="5">
+        <v>0</v>
+      </c>
+      <c r="N170" s="5">
+        <v>0</v>
+      </c>
+      <c r="O170" s="5">
+        <v>0</v>
+      </c>
+      <c r="P170" s="5">
+        <v>0</v>
+      </c>
       <c r="Q170" s="3">
         <v>0</v>
       </c>
@@ -8881,6 +11266,21 @@
       </c>
       <c r="K171" s="2">
         <v>1</v>
+      </c>
+      <c r="L171" s="5">
+        <v>0</v>
+      </c>
+      <c r="M171" s="5">
+        <v>0</v>
+      </c>
+      <c r="N171" s="5">
+        <v>0</v>
+      </c>
+      <c r="O171" s="5">
+        <v>0</v>
+      </c>
+      <c r="P171" s="5">
+        <v>0</v>
       </c>
       <c r="Q171" s="3">
         <v>0</v>
@@ -8957,6 +11357,21 @@
       <c r="K173" s="2">
         <v>0</v>
       </c>
+      <c r="L173" s="5">
+        <v>0</v>
+      </c>
+      <c r="M173" s="5">
+        <v>0</v>
+      </c>
+      <c r="N173" s="5">
+        <v>0</v>
+      </c>
+      <c r="O173" s="5">
+        <v>0</v>
+      </c>
+      <c r="P173" s="5">
+        <v>0</v>
+      </c>
       <c r="Q173" s="3">
         <v>0</v>
       </c>
@@ -9007,6 +11422,21 @@
       <c r="K174" s="2">
         <v>1</v>
       </c>
+      <c r="L174" s="5">
+        <v>10</v>
+      </c>
+      <c r="M174" s="5">
+        <v>1</v>
+      </c>
+      <c r="N174" s="5">
+        <v>0</v>
+      </c>
+      <c r="O174" s="5">
+        <v>1</v>
+      </c>
+      <c r="P174" s="5">
+        <v>0</v>
+      </c>
       <c r="Q174" s="3">
         <v>0</v>
       </c>
@@ -9057,6 +11487,21 @@
       <c r="K175" s="2">
         <v>0</v>
       </c>
+      <c r="L175" s="5">
+        <v>5</v>
+      </c>
+      <c r="M175" s="5">
+        <v>0</v>
+      </c>
+      <c r="N175" s="5">
+        <v>1</v>
+      </c>
+      <c r="O175" s="5">
+        <v>0</v>
+      </c>
+      <c r="P175" s="5">
+        <v>1</v>
+      </c>
       <c r="Q175" s="3">
         <v>0</v>
       </c>
@@ -9107,6 +11552,21 @@
       <c r="K176" s="2">
         <v>1</v>
       </c>
+      <c r="L176" s="5">
+        <v>3</v>
+      </c>
+      <c r="M176" s="5">
+        <v>0</v>
+      </c>
+      <c r="N176" s="5">
+        <v>0</v>
+      </c>
+      <c r="O176" s="5">
+        <v>1</v>
+      </c>
+      <c r="P176" s="5">
+        <v>1</v>
+      </c>
       <c r="Q176" s="3">
         <v>1</v>
       </c>
@@ -9157,6 +11617,21 @@
       <c r="K177" s="2">
         <v>0</v>
       </c>
+      <c r="L177" s="5">
+        <v>2</v>
+      </c>
+      <c r="M177" s="5">
+        <v>0</v>
+      </c>
+      <c r="N177" s="5">
+        <v>0</v>
+      </c>
+      <c r="O177" s="5">
+        <v>1</v>
+      </c>
+      <c r="P177" s="5">
+        <v>0</v>
+      </c>
       <c r="Q177" s="3">
         <v>2</v>
       </c>
@@ -9207,6 +11682,21 @@
       <c r="K178" s="2">
         <v>1</v>
       </c>
+      <c r="L178" s="5">
+        <v>2</v>
+      </c>
+      <c r="M178" s="5">
+        <v>0</v>
+      </c>
+      <c r="N178" s="5">
+        <v>0</v>
+      </c>
+      <c r="O178" s="5">
+        <v>1</v>
+      </c>
+      <c r="P178" s="5">
+        <v>0</v>
+      </c>
       <c r="Q178" s="3">
         <v>0</v>
       </c>
@@ -9256,6 +11746,21 @@
       </c>
       <c r="K179" s="2">
         <v>0</v>
+      </c>
+      <c r="L179" s="5">
+        <v>1</v>
+      </c>
+      <c r="M179" s="5">
+        <v>0</v>
+      </c>
+      <c r="N179" s="5">
+        <v>0</v>
+      </c>
+      <c r="O179" s="5">
+        <v>0</v>
+      </c>
+      <c r="P179" s="5">
+        <v>1</v>
       </c>
       <c r="Q179" s="3">
         <v>4</v>
@@ -9310,6 +11815,21 @@
       <c r="K180" s="2">
         <v>1</v>
       </c>
+      <c r="L180" s="5">
+        <v>1</v>
+      </c>
+      <c r="M180" s="5">
+        <v>0</v>
+      </c>
+      <c r="N180" s="5">
+        <v>0</v>
+      </c>
+      <c r="O180" s="5">
+        <v>0</v>
+      </c>
+      <c r="P180" s="5">
+        <v>1</v>
+      </c>
       <c r="Q180" s="3">
         <v>3</v>
       </c>
@@ -9360,6 +11880,21 @@
       <c r="K181" s="2">
         <v>0</v>
       </c>
+      <c r="L181" s="5">
+        <v>1</v>
+      </c>
+      <c r="M181" s="5">
+        <v>0</v>
+      </c>
+      <c r="N181" s="5">
+        <v>0</v>
+      </c>
+      <c r="O181" s="5">
+        <v>0</v>
+      </c>
+      <c r="P181" s="5">
+        <v>1</v>
+      </c>
       <c r="Q181" s="3">
         <v>2</v>
       </c>
@@ -9410,6 +11945,21 @@
       <c r="K182" s="2">
         <v>1</v>
       </c>
+      <c r="L182" s="5">
+        <v>1</v>
+      </c>
+      <c r="M182" s="5">
+        <v>0</v>
+      </c>
+      <c r="N182" s="5">
+        <v>0</v>
+      </c>
+      <c r="O182" s="5">
+        <v>0</v>
+      </c>
+      <c r="P182" s="5">
+        <v>1</v>
+      </c>
       <c r="Q182" s="3">
         <v>1</v>
       </c>
@@ -9460,6 +12010,21 @@
       <c r="K183" s="2">
         <v>0</v>
       </c>
+      <c r="L183" s="5">
+        <v>1</v>
+      </c>
+      <c r="M183" s="5">
+        <v>0</v>
+      </c>
+      <c r="N183" s="5">
+        <v>0</v>
+      </c>
+      <c r="O183" s="5">
+        <v>0</v>
+      </c>
+      <c r="P183" s="5">
+        <v>1</v>
+      </c>
       <c r="Q183" s="3">
         <v>0</v>
       </c>
@@ -9510,6 +12075,21 @@
       <c r="K184" s="2">
         <v>1</v>
       </c>
+      <c r="L184" s="5">
+        <v>0</v>
+      </c>
+      <c r="M184" s="5">
+        <v>0</v>
+      </c>
+      <c r="N184" s="5">
+        <v>0</v>
+      </c>
+      <c r="O184" s="5">
+        <v>0</v>
+      </c>
+      <c r="P184" s="5">
+        <v>0</v>
+      </c>
       <c r="Q184" s="3">
         <v>0</v>
       </c>
@@ -9560,6 +12140,21 @@
       <c r="K185" s="2">
         <v>0</v>
       </c>
+      <c r="L185" s="5">
+        <v>0</v>
+      </c>
+      <c r="M185" s="5">
+        <v>0</v>
+      </c>
+      <c r="N185" s="5">
+        <v>0</v>
+      </c>
+      <c r="O185" s="5">
+        <v>0</v>
+      </c>
+      <c r="P185" s="5">
+        <v>0</v>
+      </c>
       <c r="Q185" s="3">
         <v>0</v>
       </c>
@@ -9610,6 +12205,21 @@
       <c r="K186" s="2">
         <v>1</v>
       </c>
+      <c r="L186" s="5">
+        <v>0</v>
+      </c>
+      <c r="M186" s="5">
+        <v>0</v>
+      </c>
+      <c r="N186" s="5">
+        <v>0</v>
+      </c>
+      <c r="O186" s="5">
+        <v>0</v>
+      </c>
+      <c r="P186" s="5">
+        <v>0</v>
+      </c>
       <c r="Q186" s="3">
         <v>0</v>
       </c>
@@ -9660,6 +12270,21 @@
       <c r="K187" s="2">
         <v>0</v>
       </c>
+      <c r="L187" s="5">
+        <v>0</v>
+      </c>
+      <c r="M187" s="5">
+        <v>0</v>
+      </c>
+      <c r="N187" s="5">
+        <v>0</v>
+      </c>
+      <c r="O187" s="5">
+        <v>0</v>
+      </c>
+      <c r="P187" s="5">
+        <v>0</v>
+      </c>
       <c r="Q187" s="3">
         <v>0</v>
       </c>
@@ -9709,6 +12334,21 @@
       </c>
       <c r="K188" s="2">
         <v>1</v>
+      </c>
+      <c r="L188" s="5">
+        <v>0</v>
+      </c>
+      <c r="M188" s="5">
+        <v>0</v>
+      </c>
+      <c r="N188" s="5">
+        <v>0</v>
+      </c>
+      <c r="O188" s="5">
+        <v>0</v>
+      </c>
+      <c r="P188" s="5">
+        <v>0</v>
       </c>
       <c r="Q188" s="3">
         <v>0</v>
@@ -9785,6 +12425,21 @@
       <c r="K190" s="2">
         <v>0</v>
       </c>
+      <c r="L190" s="5">
+        <v>0</v>
+      </c>
+      <c r="M190" s="5">
+        <v>0</v>
+      </c>
+      <c r="N190" s="5">
+        <v>0</v>
+      </c>
+      <c r="O190" s="5">
+        <v>0</v>
+      </c>
+      <c r="P190" s="5">
+        <v>0</v>
+      </c>
       <c r="Q190" s="3">
         <v>0</v>
       </c>
@@ -9835,6 +12490,21 @@
       <c r="K191" s="2">
         <v>1</v>
       </c>
+      <c r="L191" s="5">
+        <v>11</v>
+      </c>
+      <c r="M191" s="5">
+        <v>1</v>
+      </c>
+      <c r="N191" s="5">
+        <v>0</v>
+      </c>
+      <c r="O191" s="5">
+        <v>1</v>
+      </c>
+      <c r="P191" s="5">
+        <v>1</v>
+      </c>
       <c r="Q191" s="3">
         <v>0</v>
       </c>
@@ -9885,6 +12555,21 @@
       <c r="K192" s="2">
         <v>0</v>
       </c>
+      <c r="L192" s="5">
+        <v>5</v>
+      </c>
+      <c r="M192" s="5">
+        <v>0</v>
+      </c>
+      <c r="N192" s="5">
+        <v>1</v>
+      </c>
+      <c r="O192" s="5">
+        <v>0</v>
+      </c>
+      <c r="P192" s="5">
+        <v>1</v>
+      </c>
       <c r="Q192" s="3">
         <v>1</v>
       </c>
@@ -9935,6 +12620,21 @@
       <c r="K193" s="2">
         <v>1</v>
       </c>
+      <c r="L193" s="5">
+        <v>3</v>
+      </c>
+      <c r="M193" s="5">
+        <v>0</v>
+      </c>
+      <c r="N193" s="5">
+        <v>0</v>
+      </c>
+      <c r="O193" s="5">
+        <v>1</v>
+      </c>
+      <c r="P193" s="5">
+        <v>1</v>
+      </c>
       <c r="Q193" s="3">
         <v>2</v>
       </c>
@@ -9985,6 +12685,21 @@
       <c r="K194" s="2">
         <v>0</v>
       </c>
+      <c r="L194" s="5">
+        <v>2</v>
+      </c>
+      <c r="M194" s="5">
+        <v>0</v>
+      </c>
+      <c r="N194" s="5">
+        <v>0</v>
+      </c>
+      <c r="O194" s="5">
+        <v>1</v>
+      </c>
+      <c r="P194" s="5">
+        <v>0</v>
+      </c>
       <c r="Q194" s="3">
         <v>3</v>
       </c>
@@ -10035,6 +12750,21 @@
       <c r="K195" s="2">
         <v>1</v>
       </c>
+      <c r="L195" s="5">
+        <v>2</v>
+      </c>
+      <c r="M195" s="5">
+        <v>0</v>
+      </c>
+      <c r="N195" s="5">
+        <v>0</v>
+      </c>
+      <c r="O195" s="5">
+        <v>1</v>
+      </c>
+      <c r="P195" s="5">
+        <v>0</v>
+      </c>
       <c r="Q195" s="3">
         <v>1</v>
       </c>
@@ -10084,6 +12814,21 @@
       </c>
       <c r="K196" s="2">
         <v>0</v>
+      </c>
+      <c r="L196" s="5">
+        <v>1</v>
+      </c>
+      <c r="M196" s="5">
+        <v>0</v>
+      </c>
+      <c r="N196" s="5">
+        <v>0</v>
+      </c>
+      <c r="O196" s="5">
+        <v>0</v>
+      </c>
+      <c r="P196" s="5">
+        <v>1</v>
       </c>
       <c r="Q196" s="3">
         <v>5</v>
@@ -10138,6 +12883,21 @@
       <c r="K197" s="2">
         <v>1</v>
       </c>
+      <c r="L197" s="5">
+        <v>1</v>
+      </c>
+      <c r="M197" s="5">
+        <v>0</v>
+      </c>
+      <c r="N197" s="5">
+        <v>0</v>
+      </c>
+      <c r="O197" s="5">
+        <v>0</v>
+      </c>
+      <c r="P197" s="5">
+        <v>1</v>
+      </c>
       <c r="Q197" s="3">
         <v>4</v>
       </c>
@@ -10188,6 +12948,21 @@
       <c r="K198" s="2">
         <v>0</v>
       </c>
+      <c r="L198" s="5">
+        <v>1</v>
+      </c>
+      <c r="M198" s="5">
+        <v>0</v>
+      </c>
+      <c r="N198" s="5">
+        <v>0</v>
+      </c>
+      <c r="O198" s="5">
+        <v>0</v>
+      </c>
+      <c r="P198" s="5">
+        <v>1</v>
+      </c>
       <c r="Q198" s="3">
         <v>3</v>
       </c>
@@ -10238,6 +13013,21 @@
       <c r="K199" s="2">
         <v>1</v>
       </c>
+      <c r="L199" s="5">
+        <v>1</v>
+      </c>
+      <c r="M199" s="5">
+        <v>0</v>
+      </c>
+      <c r="N199" s="5">
+        <v>0</v>
+      </c>
+      <c r="O199" s="5">
+        <v>0</v>
+      </c>
+      <c r="P199" s="5">
+        <v>1</v>
+      </c>
       <c r="Q199" s="3">
         <v>2</v>
       </c>
@@ -10288,6 +13078,21 @@
       <c r="K200" s="2">
         <v>0</v>
       </c>
+      <c r="L200" s="5">
+        <v>1</v>
+      </c>
+      <c r="M200" s="5">
+        <v>0</v>
+      </c>
+      <c r="N200" s="5">
+        <v>0</v>
+      </c>
+      <c r="O200" s="5">
+        <v>0</v>
+      </c>
+      <c r="P200" s="5">
+        <v>1</v>
+      </c>
       <c r="Q200" s="3">
         <v>1</v>
       </c>
@@ -10338,6 +13143,21 @@
       <c r="K201" s="2">
         <v>1</v>
       </c>
+      <c r="L201" s="5">
+        <v>1</v>
+      </c>
+      <c r="M201" s="5">
+        <v>0</v>
+      </c>
+      <c r="N201" s="5">
+        <v>0</v>
+      </c>
+      <c r="O201" s="5">
+        <v>0</v>
+      </c>
+      <c r="P201" s="5">
+        <v>1</v>
+      </c>
       <c r="Q201" s="3">
         <v>0</v>
       </c>
@@ -10388,6 +13208,21 @@
       <c r="K202" s="2">
         <v>0</v>
       </c>
+      <c r="L202" s="5">
+        <v>0</v>
+      </c>
+      <c r="M202" s="5">
+        <v>0</v>
+      </c>
+      <c r="N202" s="5">
+        <v>0</v>
+      </c>
+      <c r="O202" s="5">
+        <v>0</v>
+      </c>
+      <c r="P202" s="5">
+        <v>0</v>
+      </c>
       <c r="Q202" s="3">
         <v>0</v>
       </c>
@@ -10438,6 +13273,21 @@
       <c r="K203" s="2">
         <v>1</v>
       </c>
+      <c r="L203" s="5">
+        <v>0</v>
+      </c>
+      <c r="M203" s="5">
+        <v>0</v>
+      </c>
+      <c r="N203" s="5">
+        <v>0</v>
+      </c>
+      <c r="O203" s="5">
+        <v>0</v>
+      </c>
+      <c r="P203" s="5">
+        <v>0</v>
+      </c>
       <c r="Q203" s="3">
         <v>0</v>
       </c>
@@ -10488,6 +13338,21 @@
       <c r="K204" s="2">
         <v>0</v>
       </c>
+      <c r="L204" s="5">
+        <v>0</v>
+      </c>
+      <c r="M204" s="5">
+        <v>0</v>
+      </c>
+      <c r="N204" s="5">
+        <v>0</v>
+      </c>
+      <c r="O204" s="5">
+        <v>0</v>
+      </c>
+      <c r="P204" s="5">
+        <v>0</v>
+      </c>
       <c r="Q204" s="3">
         <v>0</v>
       </c>
@@ -10537,6 +13402,21 @@
       </c>
       <c r="K205" s="2">
         <v>1</v>
+      </c>
+      <c r="L205" s="5">
+        <v>0</v>
+      </c>
+      <c r="M205" s="5">
+        <v>0</v>
+      </c>
+      <c r="N205" s="5">
+        <v>0</v>
+      </c>
+      <c r="O205" s="5">
+        <v>0</v>
+      </c>
+      <c r="P205" s="5">
+        <v>0</v>
       </c>
       <c r="Q205" s="3">
         <v>0</v>
@@ -10613,6 +13493,21 @@
       <c r="K207" s="2">
         <v>0</v>
       </c>
+      <c r="L207" s="5">
+        <v>0</v>
+      </c>
+      <c r="M207" s="5">
+        <v>0</v>
+      </c>
+      <c r="N207" s="5">
+        <v>0</v>
+      </c>
+      <c r="O207" s="5">
+        <v>0</v>
+      </c>
+      <c r="P207" s="5">
+        <v>0</v>
+      </c>
       <c r="Q207" s="3">
         <v>0</v>
       </c>
@@ -10663,6 +13558,21 @@
       <c r="K208" s="2">
         <v>1</v>
       </c>
+      <c r="L208" s="5">
+        <v>12</v>
+      </c>
+      <c r="M208" s="5">
+        <v>1</v>
+      </c>
+      <c r="N208" s="5">
+        <v>1</v>
+      </c>
+      <c r="O208" s="5">
+        <v>0</v>
+      </c>
+      <c r="P208" s="5">
+        <v>0</v>
+      </c>
       <c r="Q208" s="3">
         <v>0</v>
       </c>
@@ -10713,6 +13623,21 @@
       <c r="K209" s="2">
         <v>0</v>
       </c>
+      <c r="L209" s="5">
+        <v>6</v>
+      </c>
+      <c r="M209" s="5">
+        <v>0</v>
+      </c>
+      <c r="N209" s="5">
+        <v>1</v>
+      </c>
+      <c r="O209" s="5">
+        <v>1</v>
+      </c>
+      <c r="P209" s="5">
+        <v>0</v>
+      </c>
       <c r="Q209" s="3">
         <v>0</v>
       </c>
@@ -10763,6 +13688,21 @@
       <c r="K210" s="2">
         <v>1</v>
       </c>
+      <c r="L210" s="5">
+        <v>4</v>
+      </c>
+      <c r="M210" s="5">
+        <v>0</v>
+      </c>
+      <c r="N210" s="5">
+        <v>1</v>
+      </c>
+      <c r="O210" s="5">
+        <v>0</v>
+      </c>
+      <c r="P210" s="5">
+        <v>0</v>
+      </c>
       <c r="Q210" s="3">
         <v>0</v>
       </c>
@@ -10813,6 +13753,21 @@
       <c r="K211" s="2">
         <v>0</v>
       </c>
+      <c r="L211" s="5">
+        <v>3</v>
+      </c>
+      <c r="M211" s="5">
+        <v>0</v>
+      </c>
+      <c r="N211" s="5">
+        <v>0</v>
+      </c>
+      <c r="O211" s="5">
+        <v>1</v>
+      </c>
+      <c r="P211" s="5">
+        <v>1</v>
+      </c>
       <c r="Q211" s="3">
         <v>0</v>
       </c>
@@ -10863,6 +13818,21 @@
       <c r="K212" s="2">
         <v>1</v>
       </c>
+      <c r="L212" s="5">
+        <v>2</v>
+      </c>
+      <c r="M212" s="5">
+        <v>0</v>
+      </c>
+      <c r="N212" s="5">
+        <v>0</v>
+      </c>
+      <c r="O212" s="5">
+        <v>1</v>
+      </c>
+      <c r="P212" s="5">
+        <v>0</v>
+      </c>
       <c r="Q212" s="3">
         <v>2</v>
       </c>
@@ -10911,6 +13881,21 @@
         <v>1</v>
       </c>
       <c r="K213" s="2">
+        <v>0</v>
+      </c>
+      <c r="L213" s="5">
+        <v>2</v>
+      </c>
+      <c r="M213" s="5">
+        <v>0</v>
+      </c>
+      <c r="N213" s="5">
+        <v>0</v>
+      </c>
+      <c r="O213" s="5">
+        <v>1</v>
+      </c>
+      <c r="P213" s="5">
         <v>0</v>
       </c>
       <c r="Q213" s="3">
@@ -10966,6 +13951,21 @@
       <c r="K214" s="2">
         <v>1</v>
       </c>
+      <c r="L214" s="5">
+        <v>1</v>
+      </c>
+      <c r="M214" s="5">
+        <v>0</v>
+      </c>
+      <c r="N214" s="5">
+        <v>0</v>
+      </c>
+      <c r="O214" s="5">
+        <v>0</v>
+      </c>
+      <c r="P214" s="5">
+        <v>1</v>
+      </c>
       <c r="Q214" s="3">
         <v>5</v>
       </c>
@@ -11016,6 +14016,21 @@
       <c r="K215" s="2">
         <v>0</v>
       </c>
+      <c r="L215" s="5">
+        <v>1</v>
+      </c>
+      <c r="M215" s="5">
+        <v>0</v>
+      </c>
+      <c r="N215" s="5">
+        <v>0</v>
+      </c>
+      <c r="O215" s="5">
+        <v>0</v>
+      </c>
+      <c r="P215" s="5">
+        <v>1</v>
+      </c>
       <c r="Q215" s="3">
         <v>4</v>
       </c>
@@ -11066,6 +14081,21 @@
       <c r="K216" s="2">
         <v>1</v>
       </c>
+      <c r="L216" s="5">
+        <v>1</v>
+      </c>
+      <c r="M216" s="5">
+        <v>0</v>
+      </c>
+      <c r="N216" s="5">
+        <v>0</v>
+      </c>
+      <c r="O216" s="5">
+        <v>0</v>
+      </c>
+      <c r="P216" s="5">
+        <v>1</v>
+      </c>
       <c r="Q216" s="3">
         <v>3</v>
       </c>
@@ -11116,6 +14146,21 @@
       <c r="K217" s="2">
         <v>0</v>
       </c>
+      <c r="L217" s="5">
+        <v>1</v>
+      </c>
+      <c r="M217" s="5">
+        <v>0</v>
+      </c>
+      <c r="N217" s="5">
+        <v>0</v>
+      </c>
+      <c r="O217" s="5">
+        <v>0</v>
+      </c>
+      <c r="P217" s="5">
+        <v>1</v>
+      </c>
       <c r="Q217" s="3">
         <v>2</v>
       </c>
@@ -11166,6 +14211,21 @@
       <c r="K218" s="2">
         <v>1</v>
       </c>
+      <c r="L218" s="5">
+        <v>1</v>
+      </c>
+      <c r="M218" s="5">
+        <v>0</v>
+      </c>
+      <c r="N218" s="5">
+        <v>0</v>
+      </c>
+      <c r="O218" s="5">
+        <v>0</v>
+      </c>
+      <c r="P218" s="5">
+        <v>1</v>
+      </c>
       <c r="Q218" s="3">
         <v>1</v>
       </c>
@@ -11216,6 +14276,21 @@
       <c r="K219" s="2">
         <v>0</v>
       </c>
+      <c r="L219" s="5">
+        <v>1</v>
+      </c>
+      <c r="M219" s="5">
+        <v>0</v>
+      </c>
+      <c r="N219" s="5">
+        <v>0</v>
+      </c>
+      <c r="O219" s="5">
+        <v>0</v>
+      </c>
+      <c r="P219" s="5">
+        <v>1</v>
+      </c>
       <c r="Q219" s="3">
         <v>0</v>
       </c>
@@ -11266,6 +14341,21 @@
       <c r="K220" s="2">
         <v>1</v>
       </c>
+      <c r="L220" s="5">
+        <v>0</v>
+      </c>
+      <c r="M220" s="5">
+        <v>0</v>
+      </c>
+      <c r="N220" s="5">
+        <v>0</v>
+      </c>
+      <c r="O220" s="5">
+        <v>0</v>
+      </c>
+      <c r="P220" s="5">
+        <v>0</v>
+      </c>
       <c r="Q220" s="3">
         <v>0</v>
       </c>
@@ -11316,6 +14406,21 @@
       <c r="K221" s="2">
         <v>0</v>
       </c>
+      <c r="L221" s="5">
+        <v>0</v>
+      </c>
+      <c r="M221" s="5">
+        <v>0</v>
+      </c>
+      <c r="N221" s="5">
+        <v>0</v>
+      </c>
+      <c r="O221" s="5">
+        <v>0</v>
+      </c>
+      <c r="P221" s="5">
+        <v>0</v>
+      </c>
       <c r="Q221" s="3">
         <v>0</v>
       </c>
@@ -11365,6 +14470,21 @@
       </c>
       <c r="K222" s="2">
         <v>1</v>
+      </c>
+      <c r="L222" s="5">
+        <v>0</v>
+      </c>
+      <c r="M222" s="5">
+        <v>0</v>
+      </c>
+      <c r="N222" s="5">
+        <v>0</v>
+      </c>
+      <c r="O222" s="5">
+        <v>0</v>
+      </c>
+      <c r="P222" s="5">
+        <v>0</v>
       </c>
       <c r="Q222" s="3">
         <v>0</v>
@@ -11441,6 +14561,21 @@
       <c r="K224" s="2">
         <v>0</v>
       </c>
+      <c r="L224" s="5">
+        <v>0</v>
+      </c>
+      <c r="M224" s="5">
+        <v>0</v>
+      </c>
+      <c r="N224" s="5">
+        <v>0</v>
+      </c>
+      <c r="O224" s="5">
+        <v>0</v>
+      </c>
+      <c r="P224" s="5">
+        <v>0</v>
+      </c>
       <c r="Q224" s="3">
         <v>0</v>
       </c>
@@ -11491,6 +14626,21 @@
       <c r="K225" s="2">
         <v>1</v>
       </c>
+      <c r="L225" s="5">
+        <v>13</v>
+      </c>
+      <c r="M225" s="5">
+        <v>1</v>
+      </c>
+      <c r="N225" s="5">
+        <v>1</v>
+      </c>
+      <c r="O225" s="5">
+        <v>0</v>
+      </c>
+      <c r="P225" s="5">
+        <v>1</v>
+      </c>
       <c r="Q225" s="3">
         <v>0</v>
       </c>
@@ -11541,6 +14691,21 @@
       <c r="K226" s="2">
         <v>0</v>
       </c>
+      <c r="L226" s="5">
+        <v>6</v>
+      </c>
+      <c r="M226" s="5">
+        <v>0</v>
+      </c>
+      <c r="N226" s="5">
+        <v>1</v>
+      </c>
+      <c r="O226" s="5">
+        <v>1</v>
+      </c>
+      <c r="P226" s="5">
+        <v>0</v>
+      </c>
       <c r="Q226" s="3">
         <v>1</v>
       </c>
@@ -11591,6 +14756,21 @@
       <c r="K227" s="2">
         <v>1</v>
       </c>
+      <c r="L227" s="5">
+        <v>4</v>
+      </c>
+      <c r="M227" s="5">
+        <v>0</v>
+      </c>
+      <c r="N227" s="5">
+        <v>1</v>
+      </c>
+      <c r="O227" s="5">
+        <v>0</v>
+      </c>
+      <c r="P227" s="5">
+        <v>0</v>
+      </c>
       <c r="Q227" s="3">
         <v>1</v>
       </c>
@@ -11641,6 +14821,21 @@
       <c r="K228" s="2">
         <v>0</v>
       </c>
+      <c r="L228" s="5">
+        <v>3</v>
+      </c>
+      <c r="M228" s="5">
+        <v>0</v>
+      </c>
+      <c r="N228" s="5">
+        <v>0</v>
+      </c>
+      <c r="O228" s="5">
+        <v>1</v>
+      </c>
+      <c r="P228" s="5">
+        <v>1</v>
+      </c>
       <c r="Q228" s="3">
         <v>1</v>
       </c>
@@ -11691,6 +14886,21 @@
       <c r="K229" s="2">
         <v>1</v>
       </c>
+      <c r="L229" s="5">
+        <v>2</v>
+      </c>
+      <c r="M229" s="5">
+        <v>0</v>
+      </c>
+      <c r="N229" s="5">
+        <v>0</v>
+      </c>
+      <c r="O229" s="5">
+        <v>1</v>
+      </c>
+      <c r="P229" s="5">
+        <v>0</v>
+      </c>
       <c r="Q229" s="3">
         <v>3</v>
       </c>
@@ -11741,6 +14951,21 @@
       <c r="K230" s="2">
         <v>0</v>
       </c>
+      <c r="L230" s="5">
+        <v>2</v>
+      </c>
+      <c r="M230" s="5">
+        <v>0</v>
+      </c>
+      <c r="N230" s="5">
+        <v>0</v>
+      </c>
+      <c r="O230" s="5">
+        <v>1</v>
+      </c>
+      <c r="P230" s="5">
+        <v>0</v>
+      </c>
       <c r="Q230" s="3">
         <v>1</v>
       </c>
@@ -11789,6 +15014,21 @@
         <v>1</v>
       </c>
       <c r="K231" s="2">
+        <v>1</v>
+      </c>
+      <c r="L231" s="5">
+        <v>1</v>
+      </c>
+      <c r="M231" s="5">
+        <v>0</v>
+      </c>
+      <c r="N231" s="5">
+        <v>0</v>
+      </c>
+      <c r="O231" s="5">
+        <v>0</v>
+      </c>
+      <c r="P231" s="5">
         <v>1</v>
       </c>
       <c r="Q231" s="3">
@@ -11844,6 +15084,21 @@
       <c r="K232" s="2">
         <v>0</v>
       </c>
+      <c r="L232" s="5">
+        <v>1</v>
+      </c>
+      <c r="M232" s="5">
+        <v>0</v>
+      </c>
+      <c r="N232" s="5">
+        <v>0</v>
+      </c>
+      <c r="O232" s="5">
+        <v>0</v>
+      </c>
+      <c r="P232" s="5">
+        <v>1</v>
+      </c>
       <c r="Q232" s="3">
         <v>5</v>
       </c>
@@ -11894,6 +15149,21 @@
       <c r="K233" s="2">
         <v>1</v>
       </c>
+      <c r="L233" s="5">
+        <v>1</v>
+      </c>
+      <c r="M233" s="5">
+        <v>0</v>
+      </c>
+      <c r="N233" s="5">
+        <v>0</v>
+      </c>
+      <c r="O233" s="5">
+        <v>0</v>
+      </c>
+      <c r="P233" s="5">
+        <v>1</v>
+      </c>
       <c r="Q233" s="3">
         <v>4</v>
       </c>
@@ -11944,6 +15214,21 @@
       <c r="K234" s="2">
         <v>0</v>
       </c>
+      <c r="L234" s="5">
+        <v>1</v>
+      </c>
+      <c r="M234" s="5">
+        <v>0</v>
+      </c>
+      <c r="N234" s="5">
+        <v>0</v>
+      </c>
+      <c r="O234" s="5">
+        <v>0</v>
+      </c>
+      <c r="P234" s="5">
+        <v>1</v>
+      </c>
       <c r="Q234" s="3">
         <v>3</v>
       </c>
@@ -11994,6 +15279,21 @@
       <c r="K235" s="2">
         <v>1</v>
       </c>
+      <c r="L235" s="5">
+        <v>1</v>
+      </c>
+      <c r="M235" s="5">
+        <v>0</v>
+      </c>
+      <c r="N235" s="5">
+        <v>0</v>
+      </c>
+      <c r="O235" s="5">
+        <v>0</v>
+      </c>
+      <c r="P235" s="5">
+        <v>1</v>
+      </c>
       <c r="Q235" s="3">
         <v>2</v>
       </c>
@@ -12044,6 +15344,21 @@
       <c r="K236" s="2">
         <v>0</v>
       </c>
+      <c r="L236" s="5">
+        <v>1</v>
+      </c>
+      <c r="M236" s="5">
+        <v>0</v>
+      </c>
+      <c r="N236" s="5">
+        <v>0</v>
+      </c>
+      <c r="O236" s="5">
+        <v>0</v>
+      </c>
+      <c r="P236" s="5">
+        <v>1</v>
+      </c>
       <c r="Q236" s="3">
         <v>1</v>
       </c>
@@ -12094,6 +15409,21 @@
       <c r="K237" s="2">
         <v>1</v>
       </c>
+      <c r="L237" s="5">
+        <v>1</v>
+      </c>
+      <c r="M237" s="5">
+        <v>0</v>
+      </c>
+      <c r="N237" s="5">
+        <v>0</v>
+      </c>
+      <c r="O237" s="5">
+        <v>0</v>
+      </c>
+      <c r="P237" s="5">
+        <v>1</v>
+      </c>
       <c r="Q237" s="3">
         <v>0</v>
       </c>
@@ -12144,6 +15474,21 @@
       <c r="K238" s="2">
         <v>0</v>
       </c>
+      <c r="L238" s="5">
+        <v>0</v>
+      </c>
+      <c r="M238" s="5">
+        <v>0</v>
+      </c>
+      <c r="N238" s="5">
+        <v>0</v>
+      </c>
+      <c r="O238" s="5">
+        <v>0</v>
+      </c>
+      <c r="P238" s="5">
+        <v>0</v>
+      </c>
       <c r="Q238" s="3">
         <v>0</v>
       </c>
@@ -12193,6 +15538,21 @@
       </c>
       <c r="K239" s="2">
         <v>1</v>
+      </c>
+      <c r="L239" s="5">
+        <v>0</v>
+      </c>
+      <c r="M239" s="5">
+        <v>0</v>
+      </c>
+      <c r="N239" s="5">
+        <v>0</v>
+      </c>
+      <c r="O239" s="5">
+        <v>0</v>
+      </c>
+      <c r="P239" s="5">
+        <v>0</v>
       </c>
       <c r="Q239" s="3">
         <v>0</v>
@@ -12269,6 +15629,36 @@
       <c r="K241" s="2">
         <v>0</v>
       </c>
+      <c r="L241" s="5">
+        <v>0</v>
+      </c>
+      <c r="M241" s="5">
+        <v>0</v>
+      </c>
+      <c r="N241" s="5">
+        <v>0</v>
+      </c>
+      <c r="O241" s="5">
+        <v>0</v>
+      </c>
+      <c r="P241" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="3">
+        <v>0</v>
+      </c>
+      <c r="R241" s="3">
+        <v>0</v>
+      </c>
+      <c r="S241" s="3">
+        <v>0</v>
+      </c>
+      <c r="T241" s="3">
+        <v>0</v>
+      </c>
+      <c r="U241" s="3">
+        <v>0</v>
+      </c>
       <c r="V241" s="4">
         <v>0</v>
       </c>
@@ -12304,6 +15694,36 @@
       <c r="K242" s="2">
         <v>1</v>
       </c>
+      <c r="L242" s="5">
+        <v>14</v>
+      </c>
+      <c r="M242" s="5">
+        <v>1</v>
+      </c>
+      <c r="N242" s="5">
+        <v>1</v>
+      </c>
+      <c r="O242" s="5">
+        <v>1</v>
+      </c>
+      <c r="P242" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="3">
+        <v>0</v>
+      </c>
+      <c r="R242" s="3">
+        <v>0</v>
+      </c>
+      <c r="S242" s="3">
+        <v>0</v>
+      </c>
+      <c r="T242" s="3">
+        <v>0</v>
+      </c>
+      <c r="U242" s="3">
+        <v>0</v>
+      </c>
       <c r="V242" s="4">
         <v>0</v>
       </c>
@@ -12339,6 +15759,36 @@
       <c r="K243" s="2">
         <v>0</v>
       </c>
+      <c r="L243" s="5">
+        <v>7</v>
+      </c>
+      <c r="M243" s="5">
+        <v>0</v>
+      </c>
+      <c r="N243" s="5">
+        <v>1</v>
+      </c>
+      <c r="O243" s="5">
+        <v>1</v>
+      </c>
+      <c r="P243" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q243" s="3">
+        <v>0</v>
+      </c>
+      <c r="R243" s="3">
+        <v>0</v>
+      </c>
+      <c r="S243" s="3">
+        <v>0</v>
+      </c>
+      <c r="T243" s="3">
+        <v>0</v>
+      </c>
+      <c r="U243" s="3">
+        <v>0</v>
+      </c>
       <c r="V243" s="4">
         <v>0</v>
       </c>
@@ -12374,6 +15824,36 @@
       <c r="K244" s="2">
         <v>1</v>
       </c>
+      <c r="L244" s="5">
+        <v>4</v>
+      </c>
+      <c r="M244" s="5">
+        <v>0</v>
+      </c>
+      <c r="N244" s="5">
+        <v>1</v>
+      </c>
+      <c r="O244" s="5">
+        <v>0</v>
+      </c>
+      <c r="P244" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q244" s="3">
+        <v>2</v>
+      </c>
+      <c r="R244" s="3">
+        <v>0</v>
+      </c>
+      <c r="S244" s="3">
+        <v>0</v>
+      </c>
+      <c r="T244" s="3">
+        <v>1</v>
+      </c>
+      <c r="U244" s="3">
+        <v>0</v>
+      </c>
       <c r="V244" s="4">
         <v>0</v>
       </c>
@@ -12409,6 +15889,36 @@
       <c r="K245" s="2">
         <v>0</v>
       </c>
+      <c r="L245" s="5">
+        <v>3</v>
+      </c>
+      <c r="M245" s="5">
+        <v>0</v>
+      </c>
+      <c r="N245" s="5">
+        <v>0</v>
+      </c>
+      <c r="O245" s="5">
+        <v>1</v>
+      </c>
+      <c r="P245" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q245" s="3">
+        <v>2</v>
+      </c>
+      <c r="R245" s="3">
+        <v>0</v>
+      </c>
+      <c r="S245" s="3">
+        <v>0</v>
+      </c>
+      <c r="T245" s="3">
+        <v>1</v>
+      </c>
+      <c r="U245" s="3">
+        <v>0</v>
+      </c>
       <c r="V245" s="4">
         <v>0</v>
       </c>
@@ -12444,6 +15954,36 @@
       <c r="K246" s="2">
         <v>1</v>
       </c>
+      <c r="L246" s="5">
+        <v>2</v>
+      </c>
+      <c r="M246" s="5">
+        <v>0</v>
+      </c>
+      <c r="N246" s="5">
+        <v>0</v>
+      </c>
+      <c r="O246" s="5">
+        <v>1</v>
+      </c>
+      <c r="P246" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q246" s="3">
+        <v>4</v>
+      </c>
+      <c r="R246" s="3">
+        <v>0</v>
+      </c>
+      <c r="S246" s="3">
+        <v>1</v>
+      </c>
+      <c r="T246" s="3">
+        <v>0</v>
+      </c>
+      <c r="U246" s="3">
+        <v>0</v>
+      </c>
       <c r="V246" s="4">
         <v>0</v>
       </c>
@@ -12477,6 +16017,36 @@
         <v>1</v>
       </c>
       <c r="K247" s="2">
+        <v>0</v>
+      </c>
+      <c r="L247" s="5">
+        <v>2</v>
+      </c>
+      <c r="M247" s="5">
+        <v>0</v>
+      </c>
+      <c r="N247" s="5">
+        <v>0</v>
+      </c>
+      <c r="O247" s="5">
+        <v>1</v>
+      </c>
+      <c r="P247" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="3">
+        <v>2</v>
+      </c>
+      <c r="R247" s="3">
+        <v>0</v>
+      </c>
+      <c r="S247" s="3">
+        <v>0</v>
+      </c>
+      <c r="T247" s="3">
+        <v>1</v>
+      </c>
+      <c r="U247" s="3">
         <v>0</v>
       </c>
       <c r="V247" s="4">
@@ -12517,6 +16087,36 @@
       <c r="K248" s="2">
         <v>1</v>
       </c>
+      <c r="L248" s="5">
+        <v>2</v>
+      </c>
+      <c r="M248" s="5">
+        <v>0</v>
+      </c>
+      <c r="N248" s="5">
+        <v>0</v>
+      </c>
+      <c r="O248" s="5">
+        <v>1</v>
+      </c>
+      <c r="P248" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q248" s="3">
+        <v>0</v>
+      </c>
+      <c r="R248" s="3">
+        <v>0</v>
+      </c>
+      <c r="S248" s="3">
+        <v>0</v>
+      </c>
+      <c r="T248" s="3">
+        <v>0</v>
+      </c>
+      <c r="U248" s="3">
+        <v>0</v>
+      </c>
       <c r="V248" s="4">
         <v>0</v>
       </c>
@@ -12552,6 +16152,36 @@
       <c r="K249" s="2">
         <v>0</v>
       </c>
+      <c r="L249" s="5">
+        <v>1</v>
+      </c>
+      <c r="M249" s="5">
+        <v>0</v>
+      </c>
+      <c r="N249" s="5">
+        <v>0</v>
+      </c>
+      <c r="O249" s="5">
+        <v>0</v>
+      </c>
+      <c r="P249" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q249" s="3">
+        <v>6</v>
+      </c>
+      <c r="R249" s="3">
+        <v>0</v>
+      </c>
+      <c r="S249" s="3">
+        <v>1</v>
+      </c>
+      <c r="T249" s="3">
+        <v>1</v>
+      </c>
+      <c r="U249" s="3">
+        <v>0</v>
+      </c>
       <c r="V249" s="4">
         <v>0</v>
       </c>
@@ -12587,6 +16217,36 @@
       <c r="K250" s="2">
         <v>1</v>
       </c>
+      <c r="L250" s="5">
+        <v>1</v>
+      </c>
+      <c r="M250" s="5">
+        <v>0</v>
+      </c>
+      <c r="N250" s="5">
+        <v>0</v>
+      </c>
+      <c r="O250" s="5">
+        <v>0</v>
+      </c>
+      <c r="P250" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q250" s="3">
+        <v>5</v>
+      </c>
+      <c r="R250" s="3">
+        <v>0</v>
+      </c>
+      <c r="S250" s="3">
+        <v>1</v>
+      </c>
+      <c r="T250" s="3">
+        <v>0</v>
+      </c>
+      <c r="U250" s="3">
+        <v>1</v>
+      </c>
       <c r="V250" s="4">
         <v>0</v>
       </c>
@@ -12622,6 +16282,36 @@
       <c r="K251" s="2">
         <v>0</v>
       </c>
+      <c r="L251" s="5">
+        <v>1</v>
+      </c>
+      <c r="M251" s="5">
+        <v>0</v>
+      </c>
+      <c r="N251" s="5">
+        <v>0</v>
+      </c>
+      <c r="O251" s="5">
+        <v>0</v>
+      </c>
+      <c r="P251" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q251" s="3">
+        <v>4</v>
+      </c>
+      <c r="R251" s="3">
+        <v>0</v>
+      </c>
+      <c r="S251" s="3">
+        <v>1</v>
+      </c>
+      <c r="T251" s="3">
+        <v>0</v>
+      </c>
+      <c r="U251" s="3">
+        <v>0</v>
+      </c>
       <c r="V251" s="4">
         <v>0</v>
       </c>
@@ -12657,6 +16347,36 @@
       <c r="K252" s="2">
         <v>1</v>
       </c>
+      <c r="L252" s="5">
+        <v>1</v>
+      </c>
+      <c r="M252" s="5">
+        <v>0</v>
+      </c>
+      <c r="N252" s="5">
+        <v>0</v>
+      </c>
+      <c r="O252" s="5">
+        <v>0</v>
+      </c>
+      <c r="P252" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q252" s="3">
+        <v>3</v>
+      </c>
+      <c r="R252" s="3">
+        <v>0</v>
+      </c>
+      <c r="S252" s="3">
+        <v>0</v>
+      </c>
+      <c r="T252" s="3">
+        <v>1</v>
+      </c>
+      <c r="U252" s="3">
+        <v>1</v>
+      </c>
       <c r="V252" s="4">
         <v>0</v>
       </c>
@@ -12692,6 +16412,36 @@
       <c r="K253" s="2">
         <v>0</v>
       </c>
+      <c r="L253" s="5">
+        <v>1</v>
+      </c>
+      <c r="M253" s="5">
+        <v>0</v>
+      </c>
+      <c r="N253" s="5">
+        <v>0</v>
+      </c>
+      <c r="O253" s="5">
+        <v>0</v>
+      </c>
+      <c r="P253" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q253" s="3">
+        <v>2</v>
+      </c>
+      <c r="R253" s="3">
+        <v>0</v>
+      </c>
+      <c r="S253" s="3">
+        <v>0</v>
+      </c>
+      <c r="T253" s="3">
+        <v>1</v>
+      </c>
+      <c r="U253" s="3">
+        <v>0</v>
+      </c>
       <c r="V253" s="4">
         <v>0</v>
       </c>
@@ -12727,6 +16477,36 @@
       <c r="K254" s="2">
         <v>1</v>
       </c>
+      <c r="L254" s="5">
+        <v>1</v>
+      </c>
+      <c r="M254" s="5">
+        <v>0</v>
+      </c>
+      <c r="N254" s="5">
+        <v>0</v>
+      </c>
+      <c r="O254" s="5">
+        <v>0</v>
+      </c>
+      <c r="P254" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q254" s="3">
+        <v>1</v>
+      </c>
+      <c r="R254" s="3">
+        <v>0</v>
+      </c>
+      <c r="S254" s="3">
+        <v>0</v>
+      </c>
+      <c r="T254" s="3">
+        <v>0</v>
+      </c>
+      <c r="U254" s="3">
+        <v>1</v>
+      </c>
       <c r="V254" s="4">
         <v>0</v>
       </c>
@@ -12762,6 +16542,36 @@
       <c r="K255" s="2">
         <v>0</v>
       </c>
+      <c r="L255" s="5">
+        <v>1</v>
+      </c>
+      <c r="M255" s="5">
+        <v>0</v>
+      </c>
+      <c r="N255" s="5">
+        <v>0</v>
+      </c>
+      <c r="O255" s="5">
+        <v>0</v>
+      </c>
+      <c r="P255" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q255" s="3">
+        <v>0</v>
+      </c>
+      <c r="R255" s="3">
+        <v>0</v>
+      </c>
+      <c r="S255" s="3">
+        <v>0</v>
+      </c>
+      <c r="T255" s="3">
+        <v>0</v>
+      </c>
+      <c r="U255" s="3">
+        <v>0</v>
+      </c>
       <c r="V255" s="4">
         <v>0</v>
       </c>
@@ -12796,6 +16606,36 @@
       </c>
       <c r="K256" s="2">
         <v>1</v>
+      </c>
+      <c r="L256" s="5">
+        <v>0</v>
+      </c>
+      <c r="M256" s="5">
+        <v>0</v>
+      </c>
+      <c r="N256" s="5">
+        <v>0</v>
+      </c>
+      <c r="O256" s="5">
+        <v>0</v>
+      </c>
+      <c r="P256" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q256" s="3">
+        <v>0</v>
+      </c>
+      <c r="R256" s="3">
+        <v>0</v>
+      </c>
+      <c r="S256" s="3">
+        <v>0</v>
+      </c>
+      <c r="T256" s="3">
+        <v>0</v>
+      </c>
+      <c r="U256" s="3">
+        <v>0</v>
       </c>
       <c r="V256" s="4">
         <v>1</v>
@@ -12857,6 +16697,36 @@
       <c r="K258" s="2">
         <v>0</v>
       </c>
+      <c r="L258" s="5">
+        <v>0</v>
+      </c>
+      <c r="M258" s="5">
+        <v>0</v>
+      </c>
+      <c r="N258" s="5">
+        <v>0</v>
+      </c>
+      <c r="O258" s="5">
+        <v>0</v>
+      </c>
+      <c r="P258" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q258" s="3">
+        <v>0</v>
+      </c>
+      <c r="R258" s="3">
+        <v>0</v>
+      </c>
+      <c r="S258" s="3">
+        <v>0</v>
+      </c>
+      <c r="T258" s="3">
+        <v>0</v>
+      </c>
+      <c r="U258" s="3">
+        <v>0</v>
+      </c>
       <c r="V258" s="4">
         <v>0</v>
       </c>
@@ -12892,6 +16762,36 @@
       <c r="K259" s="2">
         <v>1</v>
       </c>
+      <c r="L259" s="5">
+        <v>15</v>
+      </c>
+      <c r="M259" s="5">
+        <v>1</v>
+      </c>
+      <c r="N259" s="5">
+        <v>1</v>
+      </c>
+      <c r="O259" s="5">
+        <v>1</v>
+      </c>
+      <c r="P259" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q259" s="3">
+        <v>0</v>
+      </c>
+      <c r="R259" s="3">
+        <v>0</v>
+      </c>
+      <c r="S259" s="3">
+        <v>0</v>
+      </c>
+      <c r="T259" s="3">
+        <v>0</v>
+      </c>
+      <c r="U259" s="3">
+        <v>0</v>
+      </c>
       <c r="V259" s="4">
         <v>0</v>
       </c>
@@ -12927,6 +16827,36 @@
       <c r="K260" s="2">
         <v>0</v>
       </c>
+      <c r="L260" s="5">
+        <v>7</v>
+      </c>
+      <c r="M260" s="5">
+        <v>0</v>
+      </c>
+      <c r="N260" s="5">
+        <v>1</v>
+      </c>
+      <c r="O260" s="5">
+        <v>1</v>
+      </c>
+      <c r="P260" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q260" s="3">
+        <v>1</v>
+      </c>
+      <c r="R260" s="3">
+        <v>0</v>
+      </c>
+      <c r="S260" s="3">
+        <v>0</v>
+      </c>
+      <c r="T260" s="3">
+        <v>0</v>
+      </c>
+      <c r="U260" s="3">
+        <v>1</v>
+      </c>
       <c r="V260" s="4">
         <v>0</v>
       </c>
@@ -12962,6 +16892,36 @@
       <c r="K261" s="2">
         <v>1</v>
       </c>
+      <c r="L261" s="5">
+        <v>5</v>
+      </c>
+      <c r="M261" s="5">
+        <v>0</v>
+      </c>
+      <c r="N261" s="5">
+        <v>1</v>
+      </c>
+      <c r="O261" s="5">
+        <v>0</v>
+      </c>
+      <c r="P261" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q261" s="3">
+        <v>0</v>
+      </c>
+      <c r="R261" s="3">
+        <v>0</v>
+      </c>
+      <c r="S261" s="3">
+        <v>0</v>
+      </c>
+      <c r="T261" s="3">
+        <v>0</v>
+      </c>
+      <c r="U261" s="3">
+        <v>0</v>
+      </c>
       <c r="V261" s="4">
         <v>0</v>
       </c>
@@ -12997,6 +16957,36 @@
       <c r="K262" s="2">
         <v>0</v>
       </c>
+      <c r="L262" s="5">
+        <v>3</v>
+      </c>
+      <c r="M262" s="5">
+        <v>0</v>
+      </c>
+      <c r="N262" s="5">
+        <v>0</v>
+      </c>
+      <c r="O262" s="5">
+        <v>1</v>
+      </c>
+      <c r="P262" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q262" s="3">
+        <v>3</v>
+      </c>
+      <c r="R262" s="3">
+        <v>0</v>
+      </c>
+      <c r="S262" s="3">
+        <v>0</v>
+      </c>
+      <c r="T262" s="3">
+        <v>1</v>
+      </c>
+      <c r="U262" s="3">
+        <v>1</v>
+      </c>
       <c r="V262" s="4">
         <v>0</v>
       </c>
@@ -13032,6 +17022,36 @@
       <c r="K263" s="2">
         <v>1</v>
       </c>
+      <c r="L263" s="5">
+        <v>3</v>
+      </c>
+      <c r="M263" s="5">
+        <v>0</v>
+      </c>
+      <c r="N263" s="5">
+        <v>0</v>
+      </c>
+      <c r="O263" s="5">
+        <v>1</v>
+      </c>
+      <c r="P263" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q263" s="3">
+        <v>0</v>
+      </c>
+      <c r="R263" s="3">
+        <v>0</v>
+      </c>
+      <c r="S263" s="3">
+        <v>0</v>
+      </c>
+      <c r="T263" s="3">
+        <v>0</v>
+      </c>
+      <c r="U263" s="3">
+        <v>0</v>
+      </c>
       <c r="V263" s="4">
         <v>0</v>
       </c>
@@ -13066,6 +17086,36 @@
       </c>
       <c r="K264" s="2">
         <v>0</v>
+      </c>
+      <c r="L264" s="5">
+        <v>2</v>
+      </c>
+      <c r="M264" s="5">
+        <v>0</v>
+      </c>
+      <c r="N264" s="5">
+        <v>0</v>
+      </c>
+      <c r="O264" s="5">
+        <v>1</v>
+      </c>
+      <c r="P264" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="3">
+        <v>3</v>
+      </c>
+      <c r="R264" s="3">
+        <v>0</v>
+      </c>
+      <c r="S264" s="3">
+        <v>0</v>
+      </c>
+      <c r="T264" s="3">
+        <v>1</v>
+      </c>
+      <c r="U264" s="3">
+        <v>1</v>
       </c>
       <c r="V264" s="4">
         <v>0</v>
@@ -13105,6 +17155,36 @@
       <c r="K265" s="2">
         <v>1</v>
       </c>
+      <c r="L265" s="5">
+        <v>2</v>
+      </c>
+      <c r="M265" s="5">
+        <v>0</v>
+      </c>
+      <c r="N265" s="5">
+        <v>0</v>
+      </c>
+      <c r="O265" s="5">
+        <v>1</v>
+      </c>
+      <c r="P265" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="3">
+        <v>1</v>
+      </c>
+      <c r="R265" s="3">
+        <v>0</v>
+      </c>
+      <c r="S265" s="3">
+        <v>0</v>
+      </c>
+      <c r="T265" s="3">
+        <v>0</v>
+      </c>
+      <c r="U265" s="3">
+        <v>1</v>
+      </c>
       <c r="V265" s="4">
         <v>0</v>
       </c>
@@ -13140,6 +17220,36 @@
       <c r="K266" s="2">
         <v>0</v>
       </c>
+      <c r="L266" s="5">
+        <v>1</v>
+      </c>
+      <c r="M266" s="5">
+        <v>0</v>
+      </c>
+      <c r="N266" s="5">
+        <v>0</v>
+      </c>
+      <c r="O266" s="5">
+        <v>0</v>
+      </c>
+      <c r="P266" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q266" s="3">
+        <v>7</v>
+      </c>
+      <c r="R266" s="3">
+        <v>0</v>
+      </c>
+      <c r="S266" s="3">
+        <v>1</v>
+      </c>
+      <c r="T266" s="3">
+        <v>1</v>
+      </c>
+      <c r="U266" s="3">
+        <v>1</v>
+      </c>
       <c r="V266" s="4">
         <v>0</v>
       </c>
@@ -13175,6 +17285,36 @@
       <c r="K267" s="2">
         <v>1</v>
       </c>
+      <c r="L267" s="5">
+        <v>1</v>
+      </c>
+      <c r="M267" s="5">
+        <v>0</v>
+      </c>
+      <c r="N267" s="5">
+        <v>0</v>
+      </c>
+      <c r="O267" s="5">
+        <v>0</v>
+      </c>
+      <c r="P267" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q267" s="3">
+        <v>6</v>
+      </c>
+      <c r="R267" s="3">
+        <v>0</v>
+      </c>
+      <c r="S267" s="3">
+        <v>1</v>
+      </c>
+      <c r="T267" s="3">
+        <v>1</v>
+      </c>
+      <c r="U267" s="3">
+        <v>0</v>
+      </c>
       <c r="V267" s="4">
         <v>0</v>
       </c>
@@ -13210,6 +17350,36 @@
       <c r="K268" s="2">
         <v>0</v>
       </c>
+      <c r="L268" s="5">
+        <v>1</v>
+      </c>
+      <c r="M268" s="5">
+        <v>0</v>
+      </c>
+      <c r="N268" s="5">
+        <v>0</v>
+      </c>
+      <c r="O268" s="5">
+        <v>0</v>
+      </c>
+      <c r="P268" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q268" s="3">
+        <v>5</v>
+      </c>
+      <c r="R268" s="3">
+        <v>0</v>
+      </c>
+      <c r="S268" s="3">
+        <v>1</v>
+      </c>
+      <c r="T268" s="3">
+        <v>0</v>
+      </c>
+      <c r="U268" s="3">
+        <v>1</v>
+      </c>
       <c r="V268" s="4">
         <v>0</v>
       </c>
@@ -13245,6 +17415,36 @@
       <c r="K269" s="2">
         <v>1</v>
       </c>
+      <c r="L269" s="5">
+        <v>1</v>
+      </c>
+      <c r="M269" s="5">
+        <v>0</v>
+      </c>
+      <c r="N269" s="5">
+        <v>0</v>
+      </c>
+      <c r="O269" s="5">
+        <v>0</v>
+      </c>
+      <c r="P269" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q269" s="3">
+        <v>4</v>
+      </c>
+      <c r="R269" s="3">
+        <v>0</v>
+      </c>
+      <c r="S269" s="3">
+        <v>1</v>
+      </c>
+      <c r="T269" s="3">
+        <v>0</v>
+      </c>
+      <c r="U269" s="3">
+        <v>0</v>
+      </c>
       <c r="V269" s="4">
         <v>0</v>
       </c>
@@ -13280,6 +17480,36 @@
       <c r="K270" s="2">
         <v>0</v>
       </c>
+      <c r="L270" s="5">
+        <v>1</v>
+      </c>
+      <c r="M270" s="5">
+        <v>0</v>
+      </c>
+      <c r="N270" s="5">
+        <v>0</v>
+      </c>
+      <c r="O270" s="5">
+        <v>0</v>
+      </c>
+      <c r="P270" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q270" s="3">
+        <v>3</v>
+      </c>
+      <c r="R270" s="3">
+        <v>0</v>
+      </c>
+      <c r="S270" s="3">
+        <v>0</v>
+      </c>
+      <c r="T270" s="3">
+        <v>1</v>
+      </c>
+      <c r="U270" s="3">
+        <v>1</v>
+      </c>
       <c r="V270" s="4">
         <v>0</v>
       </c>
@@ -13315,6 +17545,36 @@
       <c r="K271" s="2">
         <v>1</v>
       </c>
+      <c r="L271" s="5">
+        <v>1</v>
+      </c>
+      <c r="M271" s="5">
+        <v>0</v>
+      </c>
+      <c r="N271" s="5">
+        <v>0</v>
+      </c>
+      <c r="O271" s="5">
+        <v>0</v>
+      </c>
+      <c r="P271" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q271" s="3">
+        <v>2</v>
+      </c>
+      <c r="R271" s="3">
+        <v>0</v>
+      </c>
+      <c r="S271" s="3">
+        <v>0</v>
+      </c>
+      <c r="T271" s="3">
+        <v>1</v>
+      </c>
+      <c r="U271" s="3">
+        <v>0</v>
+      </c>
       <c r="V271" s="4">
         <v>0</v>
       </c>
@@ -13350,6 +17610,36 @@
       <c r="K272" s="2">
         <v>0</v>
       </c>
+      <c r="L272" s="5">
+        <v>1</v>
+      </c>
+      <c r="M272" s="5">
+        <v>0</v>
+      </c>
+      <c r="N272" s="5">
+        <v>0</v>
+      </c>
+      <c r="O272" s="5">
+        <v>0</v>
+      </c>
+      <c r="P272" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q272" s="3">
+        <v>1</v>
+      </c>
+      <c r="R272" s="3">
+        <v>0</v>
+      </c>
+      <c r="S272" s="3">
+        <v>0</v>
+      </c>
+      <c r="T272" s="3">
+        <v>0</v>
+      </c>
+      <c r="U272" s="3">
+        <v>1</v>
+      </c>
       <c r="V272" s="4">
         <v>0</v>
       </c>
@@ -13384,6 +17674,36 @@
       </c>
       <c r="K273" s="2">
         <v>1</v>
+      </c>
+      <c r="L273" s="5">
+        <v>1</v>
+      </c>
+      <c r="M273" s="5">
+        <v>0</v>
+      </c>
+      <c r="N273" s="5">
+        <v>0</v>
+      </c>
+      <c r="O273" s="5">
+        <v>0</v>
+      </c>
+      <c r="P273" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q273" s="3">
+        <v>0</v>
+      </c>
+      <c r="R273" s="3">
+        <v>0</v>
+      </c>
+      <c r="S273" s="3">
+        <v>0</v>
+      </c>
+      <c r="T273" s="3">
+        <v>0</v>
+      </c>
+      <c r="U273" s="3">
+        <v>0</v>
       </c>
       <c r="V273" s="4">
         <v>0</v>
